--- a/Costes/Costes proyecto. Provisional.xlsx
+++ b/Costes/Costes proyecto. Provisional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffa0bef86689d611/Escritorio/EDEM/PROYECTO 2 QL/dataproject2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1371" documentId="8_{B7027531-4904-4DBC-882C-9FB6F5C32DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84A7932F-DEE6-459E-85D7-3278F0042C7C}"/>
+  <xr:revisionPtr revIDLastSave="1613" documentId="8_{B7027531-4904-4DBC-882C-9FB6F5C32DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{093CFF24-E456-48D9-A38C-B5B40A74E10F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5FEC1257-C56C-46B2-84BE-26EF89348FD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{5FEC1257-C56C-46B2-84BE-26EF89348FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen costes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,12 +61,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={623478F4-020F-4EA8-81C6-A31751F63A52}</author>
     <author>tc={FE900C4F-437B-4E88-8FD1-75245F26A399}</author>
+    <author>tc={375313A6-470A-4D7E-AB55-BCF55CD9D86A}</author>
     <author>tc={A0623ECB-62D2-4606-9F90-85BE1A1DA739}</author>
     <author>amparo botella</author>
   </authors>
   <commentList>
-    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{FE900C4F-437B-4E88-8FD1-75245F26A399}">
+    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{623478F4-020F-4EA8-81C6-A31751F63A52}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +77,7 @@
 MENSUAL EL BENEFICIO SE DISPARA MUCHO.</t>
       </text>
     </comment>
-    <comment ref="Z13" authorId="1" shapeId="0" xr:uid="{A0623ECB-62D2-4606-9F90-85BE1A1DA739}">
+    <comment ref="Z5" authorId="1" shapeId="0" xr:uid="{FE900C4F-437B-4E88-8FD1-75245F26A399}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +86,25 @@
 MENSUAL EL BENEFICIO SE DISPARA MUCHO.</t>
       </text>
     </comment>
-    <comment ref="E17" authorId="2" shapeId="0" xr:uid="{74563294-6675-4246-A277-F2B84E9AE5F3}">
+    <comment ref="Y13" authorId="2" shapeId="0" xr:uid="{375313A6-470A-4D7E-AB55-BCF55CD9D86A}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    OJO**** REVISAR LA IMPUTACIÓN DEL VOLUMEN SI DIARIO O MENSUAL...
+MENSUAL EL BENEFICIO SE DISPARA MUCHO.</t>
+      </text>
+    </comment>
+    <comment ref="Z13" authorId="3" shapeId="0" xr:uid="{A0623ECB-62D2-4606-9F90-85BE1A1DA739}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    OJO**** REVISAR LA IMPUTACIÓN DEL VOLUMEN SI DIARIO O MENSUAL...
+MENSUAL EL BENEFICIO SE DISPARA MUCHO.</t>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="4" shapeId="0" xr:uid="{74563294-6675-4246-A277-F2B84E9AE5F3}">
       <text>
         <r>
           <rPr>
@@ -131,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="236">
   <si>
     <t>COSTES</t>
   </si>
@@ -765,26 +785,6 @@
     <t>INGRESOS. RECUPERACIÓN INVERSIÓN QL VÍA COMISIÓN (50% SOBRE COSTE MENSUAL)</t>
   </si>
   <si>
-    <t>20% 
-Volumen día</t>
-  </si>
-  <si>
-    <t>30% 
-Volumen día</t>
-  </si>
-  <si>
-    <t>50%
-Volumen día</t>
-  </si>
-  <si>
-    <t>60%
-Volumen día</t>
-  </si>
-  <si>
-    <t>local emprendis
- las artes</t>
-  </si>
-  <si>
     <t>COSTES AÑO</t>
   </si>
   <si>
@@ -801,29 +801,6 @@
   </si>
   <si>
     <t>FEE  5% ÉXITO</t>
-  </si>
-  <si>
-    <t>ESC A  →10% 
-volumen día</t>
-  </si>
-  <si>
-    <t>ESC B → 20% 
-Volumen día</t>
-  </si>
-  <si>
-    <t>ESC C→ 30% 
-Volumen día</t>
-  </si>
-  <si>
-    <t>ESC D→ 50%
-Volumen día</t>
-  </si>
-  <si>
-    <t>ESC E→ 60%
-Volumen día</t>
-  </si>
-  <si>
-    <t>5% éxito caso A</t>
   </si>
   <si>
     <t>5% Éxito caso B</t>
@@ -839,9 +816,6 @@
     <t>5% éxito caso E</t>
   </si>
   <si>
-    <t>5% Éxito caso F</t>
-  </si>
-  <si>
     <t>FEE  5% ÉXITO ANUAL</t>
   </si>
   <si>
@@ -872,14 +846,91 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>OTRAS FORMAS DE MONETIZAR EL PRODUCTO</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD EN WEB , % COMISIÓN POR VISITA A WEB A TRAVÉS DE APLICACIÓN WEB. COMO OTROS SERVICIOS ADICIONALES</t>
+  </si>
+  <si>
+    <t>comisión</t>
+  </si>
+  <si>
+    <t>GASTOS INDIREDTOS</t>
+  </si>
+  <si>
+    <t>Nodos google Dloud (HDFS Y POSTGRESS)
+2</t>
+  </si>
+  <si>
+    <t>Total Dostes</t>
+  </si>
+  <si>
+    <t>5% éxito
+ caso A</t>
+  </si>
+  <si>
+    <t>2%
+volumen mensual</t>
+  </si>
+  <si>
+    <t>4% 
+Volumen mensual</t>
+  </si>
+  <si>
+    <t>6% 
+Volumen mensual</t>
+  </si>
+  <si>
+    <t>ESD D→ 6% 
+Volumen mensual</t>
+  </si>
+  <si>
+    <t>ESD D→ 10%
+Volumen mensual</t>
+  </si>
+  <si>
     <t>10%
-volumen día</t>
-  </si>
-  <si>
-    <t>OTRAS FORMAS DE MONETIZAR EL PRODUCTO</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD EN WEB , % COMISIÓN POR VISITA A WEB A TRAVÉS DE APLICACIÓN WEB. COMO OTROS SERVICIOS ADICIONALES</t>
+Volumen mensual</t>
+  </si>
+  <si>
+    <t>0,5% 
+volumen mensual</t>
+  </si>
+  <si>
+    <t>ESC A  →0,5% 
+volumen mensual</t>
+  </si>
+  <si>
+    <t>ESC B  →2% 
+volumen mensual</t>
+  </si>
+  <si>
+    <t>ESD C → 4% 
+Volumen mensual</t>
+  </si>
+  <si>
+    <t>5% éxito ESC A</t>
+  </si>
+  <si>
+    <t>5% Éxito ESC B</t>
+  </si>
+  <si>
+    <t>5% Éxito ESC D</t>
+  </si>
+  <si>
+    <t>5% éxito ESC E</t>
+  </si>
+  <si>
+    <t>5% éxito
+ESC C</t>
+  </si>
+  <si>
+    <t>Coste 
+personal/mes</t>
+  </si>
+  <si>
+    <t>loCal emprendis
+ las artes</t>
   </si>
 </sst>
 </file>
@@ -889,7 +940,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,8 +1175,36 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,12 +1232,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1528,93 +1601,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
@@ -1646,7 +1632,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1661,10 +1646,100 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1718,6 +1793,2317 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>PF _Recuperación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> inversión_</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15412055783489476"/>
+          <c:y val="0.18722202479885391"/>
+          <c:w val="0.81432174103237098"/>
+          <c:h val="0.56412802566345877"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ESC B  →2% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESD C → 4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ESD D→ 6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ESD D→ 10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$6:$AC$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>412096.23573996715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>824192.47147993429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1236288.7072199015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2060481.1786998359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6605-48DE-A3D8-C4A680533D7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ESC B  →2% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESD C → 4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ESD D→ 6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ESD D→ 10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$7:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>206048.11786998357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>412096.23573996715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>618144.35360995075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1030240.589349918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6605-48DE-A3D8-C4A680533D7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ESC B  →2% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESD C → 4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ESD D→ 6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ESD D→ 10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$8:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>103024.05893499179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206048.11786998357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309072.17680497537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515120.29467495898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6605-48DE-A3D8-C4A680533D7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ESC B  →2% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESD C → 4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ESD D→ 6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ESD D→ 10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$9:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51512.029467495893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103024.05893499179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154536.08840248769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257560.14733747949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6605-48DE-A3D8-C4A680533D7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1836051024"/>
+        <c:axId val="1836037712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1836051024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836037712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1836037712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836051024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>MNTO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> _Recuperación inversión_</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22005084361138827"/>
+          <c:y val="5.6666646385118209E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19116179297081776"/>
+          <c:y val="0.11922143191788405"/>
+          <c:w val="0.7953495188101487"/>
+          <c:h val="0.56412766112569257"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2%
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$14:$AC$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4945154.828879606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9890309.657759212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14835464.486638818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24725774.14439803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8213-4F69-9ECE-2D84D78AB02F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2%
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$15:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2472577.414439803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4945154.828879606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7417732.243319409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12362887.072199015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8213-4F69-9ECE-2D84D78AB02F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2%
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$16:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1236288.7072199015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2472577.414439803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3708866.1216597045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6181443.5360995075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8213-4F69-9ECE-2D84D78AB02F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2%
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6% 
+Volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10%
+Volumen mensual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>escenarios!$Z$17:$AC$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>618144.35360995075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1236288.7072199015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1854433.0608298522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3090721.7680497537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8213-4F69-9ECE-2D84D78AB02F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1941990048"/>
+        <c:axId val="1942005856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1941990048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942005856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1942005856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941990048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1818,15 +4204,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>513566</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>165198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>96723</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>20954</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1857,6 +4243,78 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A988EA-D683-4624-9055-4EA86362568B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A7D71-E980-4622-9E81-4D6605A81FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10924,7 +13382,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BACDE0B-0D36-4A90-8E2B-A2D38021C3EC}" name="TablaDinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Ciudades/rooms">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BACDE0B-0D36-4A90-8E2B-A2D38021C3EC}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Ciudades/rooms">
   <location ref="A1:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -11009,7 +13467,7 @@
     <dataField name="% coste" fld="4" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -11019,7 +13477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -11347,7 +13805,15 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Y5" dT="2021-02-02T21:14:22.01" personId="{AD54FACC-7458-4989-A587-01F08EDB6038}" id="{623478F4-020F-4EA8-81C6-A31751F63A52}">
+    <text>OJO**** REVISAR LA IMPUTACIÓN DEL VOLUMEN SI DIARIO O MENSUAL...
+MENSUAL EL BENEFICIO SE DISPARA MUCHO.</text>
+  </threadedComment>
   <threadedComment ref="Z5" dT="2021-02-02T21:14:22.01" personId="{AD54FACC-7458-4989-A587-01F08EDB6038}" id="{FE900C4F-437B-4E88-8FD1-75245F26A399}">
+    <text>OJO**** REVISAR LA IMPUTACIÓN DEL VOLUMEN SI DIARIO O MENSUAL...
+MENSUAL EL BENEFICIO SE DISPARA MUCHO.</text>
+  </threadedComment>
+  <threadedComment ref="Y13" dT="2021-02-02T21:14:22.01" personId="{AD54FACC-7458-4989-A587-01F08EDB6038}" id="{375313A6-470A-4D7E-AB55-BCF55CD9D86A}">
     <text>OJO**** REVISAR LA IMPUTACIÓN DEL VOLUMEN SI DIARIO O MENSUAL...
 MENSUAL EL BENEFICIO SE DISPARA MUCHO.</text>
   </threadedComment>
@@ -11472,7 +13938,7 @@
       <c r="E6" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="119" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="20" t="s">
@@ -11511,7 +13977,7 @@
       <c r="E7" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="96"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="22" t="s">
         <v>40</v>
       </c>
@@ -11995,33 +14461,33 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="130">
         <f>+SUM(N4:N29)</f>
         <v>598</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C4" s="143">
         <f>+SUM(P4:P29)</f>
         <v>10370.858333333335</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="136">
         <f>+SUM(N4:N13)</f>
         <v>106</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F4" s="121">
         <f>+E4/B4</f>
         <v>0.17725752508361203</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="139">
         <f>+SUM(P4:P13)</f>
         <v>1694.7916666666665</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="121">
         <f>+G4/C4</f>
         <v>0.16341864985460056</v>
       </c>
@@ -12051,14 +14517,14 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="105"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
@@ -12081,14 +14547,14 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="105"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
@@ -12099,14 +14565,14 @@
       <c r="P6" s="85"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="105"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="84">
         <v>2</v>
       </c>
@@ -12135,14 +14601,14 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="105"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="122"/>
       <c r="I8" s="84"/>
       <c r="J8" s="84"/>
       <c r="K8" s="84" t="s">
@@ -12167,14 +14633,14 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="105"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="84"/>
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
@@ -12197,14 +14663,14 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="105"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="122"/>
       <c r="I10" s="84">
         <v>3</v>
       </c>
@@ -12234,14 +14700,14 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="98"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="105"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="84"/>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
@@ -12265,14 +14731,14 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="105"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="84">
         <v>4</v>
       </c>
@@ -12302,14 +14768,14 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="106"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="123"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -12333,25 +14799,25 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.4" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="97" t="s">
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="136">
         <f>+SUM(N14:N29)</f>
         <v>492</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="121">
         <f>+E14/B4</f>
         <v>0.82274247491638797</v>
       </c>
-      <c r="G14" s="117">
+      <c r="G14" s="139">
         <f>+SUM(P14:P29)</f>
         <v>8676.0666666666657</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="121">
         <f>+G14/C4</f>
         <v>0.83658135014539914</v>
       </c>
@@ -12380,14 +14846,14 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="105"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="84"/>
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
@@ -12408,14 +14874,14 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="105"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="122"/>
       <c r="I16" s="84"/>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
@@ -12436,14 +14902,14 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="105"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="84">
         <v>5</v>
       </c>
@@ -12469,14 +14935,14 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="105"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="84">
         <v>6</v>
       </c>
@@ -12504,14 +14970,14 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="105"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="122"/>
       <c r="I19" s="84"/>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
@@ -12534,14 +15000,14 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="105"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="122"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
@@ -12553,14 +15019,14 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="105"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="122"/>
       <c r="I21" s="84">
         <v>7</v>
       </c>
@@ -12591,14 +15057,14 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="105"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="122"/>
       <c r="I22" s="84"/>
       <c r="J22" s="84"/>
       <c r="K22" t="s">
@@ -12625,14 +15091,14 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="105"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="84"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84" t="s">
@@ -12657,14 +15123,14 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="105"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="122"/>
       <c r="I24" s="84">
         <v>8</v>
       </c>
@@ -12691,14 +15157,14 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="105"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="122"/>
       <c r="I25" s="84"/>
       <c r="J25" s="84"/>
       <c r="K25" s="84" t="s">
@@ -12722,14 +15188,14 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="105"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="122"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
       <c r="K26" s="84" t="s">
@@ -12753,14 +15219,14 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="105"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="122"/>
       <c r="I27" s="84"/>
       <c r="J27" s="84"/>
       <c r="K27" s="84" t="s">
@@ -12783,14 +15249,14 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="105"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="122"/>
       <c r="I28" s="84"/>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
@@ -12813,14 +15279,14 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="106"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="123"/>
       <c r="I29" s="2">
         <v>9</v>
       </c>
@@ -12845,25 +15311,25 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="110" t="s">
+      <c r="C30" s="133"/>
+      <c r="D30" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="117">
+      <c r="F30" s="124"/>
+      <c r="G30" s="139">
         <f>+SUM(P30:P34)</f>
         <v>9958.3333333333321</v>
       </c>
-      <c r="H30" s="107"/>
+      <c r="H30" s="124"/>
       <c r="I30">
         <v>10</v>
       </c>
@@ -12889,14 +15355,14 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="111"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="108"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="125"/>
       <c r="I31">
         <v>11</v>
       </c>
@@ -12922,14 +15388,14 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="111"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="108"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="125"/>
       <c r="I32">
         <v>12</v>
       </c>
@@ -12955,14 +15421,14 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="111"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="108"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="125"/>
       <c r="I33" s="84">
         <v>13</v>
       </c>
@@ -12990,14 +15456,14 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="112"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="109"/>
+      <c r="A34" s="129"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="126"/>
       <c r="I34" s="2">
         <v>14</v>
       </c>
@@ -13026,6 +15492,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="A4:A29"/>
+    <mergeCell ref="B4:B29"/>
+    <mergeCell ref="C4:C29"/>
     <mergeCell ref="H4:H13"/>
     <mergeCell ref="H14:H29"/>
     <mergeCell ref="H30:H34"/>
@@ -13042,11 +15513,6 @@
     <mergeCell ref="E14:E29"/>
     <mergeCell ref="F4:F13"/>
     <mergeCell ref="F14:F29"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="A4:A29"/>
-    <mergeCell ref="B4:B29"/>
-    <mergeCell ref="C4:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13055,13 +15521,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46BF6FD-E79B-44AD-880A-C8E040D1AC59}">
-  <dimension ref="A2:AT52"/>
+  <dimension ref="A2:AQ52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z27" sqref="Z27"/>
+      <selection pane="bottomRight" activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -13073,31 +15539,37 @@
     <col min="6" max="6" width="7.109375" customWidth="1"/>
     <col min="7" max="7" width="1.21875" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="0.88671875" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" customWidth="1"/>
-    <col min="21" max="21" width="0.88671875" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" style="5"/>
-    <col min="24" max="24" width="15.88671875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="1.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="5.88671875" customWidth="1"/>
-    <col min="39" max="39" width="1.21875" customWidth="1"/>
-    <col min="40" max="40" width="11" customWidth="1"/>
-    <col min="41" max="41" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="0.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="19" max="19" width="3.88671875" customWidth="1"/>
+    <col min="20" max="20" width="0.88671875" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" style="5"/>
+    <col min="23" max="23" width="15.88671875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="1.33203125" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" customWidth="1"/>
+    <col min="26" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.88671875" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="32" max="34" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5546875" customWidth="1"/>
+    <col min="36" max="36" width="1.21875" customWidth="1"/>
+    <col min="37" max="37" width="11" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:43">
       <c r="B2" t="s">
         <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -13112,51 +15584,47 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Z2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>192</v>
       </c>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AG2" s="140" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="141"/>
-      <c r="AQ2" s="141"/>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="141"/>
+      <c r="AE2" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="111"/>
+      <c r="AJ2" s="111"/>
+      <c r="AK2" s="111"/>
+      <c r="AL2" s="111"/>
+      <c r="AM2" s="111"/>
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
     </row>
-    <row r="3" spans="1:46">
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142"/>
-      <c r="AT3" s="142"/>
+    <row r="3" spans="1:43">
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="112"/>
+      <c r="AJ3" s="112"/>
+      <c r="AK3" s="112"/>
+      <c r="AL3" s="112"/>
+      <c r="AM3" s="112"/>
+      <c r="AN3" s="112"/>
+      <c r="AO3" s="112"/>
+      <c r="AP3" s="112"/>
+      <c r="AQ3" s="112"/>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -13181,51 +15649,48 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="P4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="135" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z4" s="6" t="s">
+      <c r="W4" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>189</v>
       </c>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AG4" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH4" s="141"/>
-      <c r="AI4" s="141"/>
-      <c r="AJ4" s="141"/>
-      <c r="AK4" s="141"/>
-      <c r="AL4" s="141"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="140"/>
-      <c r="AO4" s="141"/>
-      <c r="AP4" s="141"/>
-      <c r="AQ4" s="141"/>
-      <c r="AR4" s="141"/>
-      <c r="AS4" s="141"/>
-      <c r="AT4" s="141"/>
+      <c r="AC4" s="2"/>
+      <c r="AE4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111"/>
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="111"/>
+      <c r="AM4" s="111"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111"/>
     </row>
-    <row r="5" spans="1:46" ht="39.6" customHeight="1">
+    <row r="5" spans="1:43" ht="39.6" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -13242,7 +15707,7 @@
         <v>167</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>169</v>
@@ -13250,8 +15715,8 @@
       <c r="K5" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="132" t="s">
-        <v>165</v>
+      <c r="L5" s="103" t="s">
+        <v>216</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>43</v>
@@ -13259,75 +15724,66 @@
       <c r="N5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="Q5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="131" t="s">
-        <v>197</v>
-      </c>
-      <c r="T5" s="42"/>
-      <c r="V5" s="94" t="s">
+      <c r="R5" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="S5" s="42"/>
+      <c r="U5" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="X5" s="136" t="s">
+      <c r="V5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="W5" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y5" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z5" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA5" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB5" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="Z5" s="130" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA5" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB5" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC5" s="130" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD5" s="130" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE5" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG5" s="143" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH5" s="143" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI5" s="143" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ5" s="143" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK5" s="143" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL5" s="143" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="143"/>
-      <c r="AO5" s="144"/>
-      <c r="AP5" s="144"/>
-      <c r="AQ5" s="144"/>
-      <c r="AR5" s="144"/>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="145"/>
+      <c r="AC5" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE5" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG5" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH5" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI5" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="114"/>
+      <c r="AM5" s="114"/>
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:43">
       <c r="A6">
         <v>1</v>
       </c>
@@ -13369,79 +15825,71 @@
       <c r="N6">
         <v>2499</v>
       </c>
-      <c r="S6">
+      <c r="R6">
         <v>250</v>
       </c>
-      <c r="V6" s="1">
-        <f>+SUM(I6,J6:M6,K6:O6,N6,Q6:T6)*20%</f>
+      <c r="U6" s="1">
+        <f>+SUM(I6,J6:M6,K6:N6,N6,P6:S6)*20%</f>
         <v>5287.0356666666676</v>
       </c>
-      <c r="W6" s="33">
-        <f>+SUM(I6,J6:T6,V6)</f>
+      <c r="V6" s="33">
+        <f>+SUM(I6,J6:S6,U6)</f>
         <v>23815.054000000004</v>
       </c>
-      <c r="X6" s="137">
-        <f>+W6*20%+W6</f>
+      <c r="W6" s="108">
+        <f>+V6*20%+V6</f>
         <v>28578.064800000004</v>
       </c>
-      <c r="Z6" s="1">
-        <f>+(C6*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>68682.705956661201</v>
-      </c>
-      <c r="AA6" s="1">
-        <f>+(C6*20%)*'Estimación medias viviendas'!$F$9</f>
-        <v>137365.4119133224</v>
-      </c>
-      <c r="AB6" s="1">
-        <f>+(C6*30%)*'Estimación medias viviendas'!$F$9</f>
-        <v>206048.11786998357</v>
-      </c>
-      <c r="AC6" s="1">
-        <f>+(C6*40%)*'Estimación medias viviendas'!$F$9</f>
-        <v>274730.8238266448</v>
-      </c>
-      <c r="AD6" s="1">
-        <f>+(C6*50%)*'Estimación medias viviendas'!$F$9</f>
-        <v>343413.52978330594</v>
-      </c>
-      <c r="AE6" s="1">
-        <f>+(C6*60%)*'Estimación medias viviendas'!$F$9</f>
+      <c r="Y6" s="148">
+        <f>+(D6*0.5%)*'Estimación medias viviendas'!$F$9</f>
+        <v>103024.05893499179</v>
+      </c>
+      <c r="Z6" s="148">
+        <f>+(D6*2%)*'Estimación medias viviendas'!$F$9</f>
         <v>412096.23573996715</v>
       </c>
-      <c r="AG6" s="146">
+      <c r="AA6" s="148">
+        <f>+(D6*4%)*'Estimación medias viviendas'!$F$9</f>
+        <v>824192.47147993429</v>
+      </c>
+      <c r="AB6" s="148">
+        <f>+(D6*6%)*'Estimación medias viviendas'!$F$9</f>
+        <v>1236288.7072199015</v>
+      </c>
+      <c r="AC6" s="148">
+        <f>+(D6*10%)*'Estimación medias viviendas'!$F$9</f>
+        <v>2060481.1786998359</v>
+      </c>
+      <c r="AE6" s="116">
+        <f>+Y6*5%</f>
+        <v>5151.2029467495895</v>
+      </c>
+      <c r="AF6" s="116">
         <f>+Z6*5%</f>
-        <v>3434.1352978330601</v>
-      </c>
-      <c r="AH6" s="146">
+        <v>20604.811786998358</v>
+      </c>
+      <c r="AG6" s="116">
         <f>+AA6*5%</f>
-        <v>6868.2705956661202</v>
-      </c>
-      <c r="AI6" s="146">
+        <v>41209.623573996716</v>
+      </c>
+      <c r="AH6" s="116">
         <f>+AB6*5%</f>
-        <v>10302.405893499179</v>
-      </c>
-      <c r="AJ6" s="146">
-        <f>+AC6*5%</f>
-        <v>13736.54119133224</v>
-      </c>
-      <c r="AK6" s="146">
-        <f>+AD6*5%</f>
-        <v>17170.676489165297</v>
-      </c>
-      <c r="AL6" s="146">
-        <f>+AE6*5%</f>
-        <v>20604.811786998358</v>
-      </c>
-      <c r="AM6" s="142"/>
-      <c r="AN6" s="142"/>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="142"/>
-      <c r="AQ6" s="142"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="142"/>
+        <v>61814.435360995078</v>
+      </c>
+      <c r="AI6" s="116">
+        <f>AC6*5%</f>
+        <v>103024.0589349918</v>
+      </c>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="112"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="112"/>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:43">
       <c r="A7">
         <v>2</v>
       </c>
@@ -13483,79 +15931,71 @@
       <c r="N7">
         <v>2499</v>
       </c>
-      <c r="S7">
+      <c r="R7">
         <v>250</v>
       </c>
-      <c r="V7" s="1">
-        <f>+SUM(I7,J7:M7,K7:O7,N7,Q7:T7)*20%</f>
+      <c r="U7" s="1">
+        <f>+SUM(I7,J7:M7,K7:N7,N7,P7:S7)*20%</f>
         <v>5287.0356666666676</v>
       </c>
-      <c r="W7" s="33">
-        <f>+SUM(I7,J7:T7,V7)</f>
+      <c r="V7" s="33">
+        <f>+SUM(I7,J7:S7,U7)</f>
         <v>23815.054000000004</v>
       </c>
-      <c r="X7" s="137">
-        <f t="shared" ref="X7:X17" si="2">+W7*20%+W7</f>
+      <c r="W7" s="108">
+        <f t="shared" ref="W7:W17" si="2">+V7*20%+V7</f>
         <v>28578.064800000004</v>
       </c>
-      <c r="Z7" s="1">
-        <f>+(C7*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>34341.3529783306</v>
-      </c>
-      <c r="AA7" s="1">
-        <f>+(C7*20%)*'Estimación medias viviendas'!$F$9</f>
-        <v>68682.705956661201</v>
-      </c>
-      <c r="AB7" s="1">
-        <f>+(C7*30%)*'Estimación medias viviendas'!$F$9</f>
-        <v>103024.05893499179</v>
-      </c>
-      <c r="AC7" s="1">
-        <f>+(C7*40%)*'Estimación medias viviendas'!$F$9</f>
-        <v>137365.4119133224</v>
-      </c>
-      <c r="AD7" s="1">
-        <f>+(C7*50%)*'Estimación medias viviendas'!$F$9</f>
-        <v>171706.76489165297</v>
-      </c>
-      <c r="AE7" s="1">
-        <f>+(C7*60%)*'Estimación medias viviendas'!$F$9</f>
+      <c r="Y7" s="149">
+        <f>+(D7*0.5%)*'Estimación medias viviendas'!$F$9</f>
+        <v>51512.029467495893</v>
+      </c>
+      <c r="Z7" s="149">
+        <f>+(D7*2%)*'Estimación medias viviendas'!$F$9</f>
         <v>206048.11786998357</v>
       </c>
-      <c r="AG7" s="146">
-        <f>+Z7*5%</f>
-        <v>1717.0676489165301</v>
-      </c>
-      <c r="AH7" s="146">
-        <f>+AA7*5%</f>
-        <v>3434.1352978330601</v>
-      </c>
-      <c r="AI7" s="146">
-        <f>+AB7*5%</f>
-        <v>5151.2029467495895</v>
-      </c>
-      <c r="AJ7" s="146">
+      <c r="AA7" s="149">
+        <f>+(D7*4%)*'Estimación medias viviendas'!$F$9</f>
+        <v>412096.23573996715</v>
+      </c>
+      <c r="AB7" s="149">
+        <f>+(D7*6%)*'Estimación medias viviendas'!$F$9</f>
+        <v>618144.35360995075</v>
+      </c>
+      <c r="AC7" s="149">
+        <f>+(D7*10%)*'Estimación medias viviendas'!$F$9</f>
+        <v>1030240.589349918</v>
+      </c>
+      <c r="AE7" s="116">
+        <f t="shared" ref="AE7:AE9" si="3">+Y7*5%</f>
+        <v>2575.6014733747948</v>
+      </c>
+      <c r="AF7" s="116">
+        <f t="shared" ref="AF7:AF9" si="4">+Z7*5%</f>
+        <v>10302.405893499179</v>
+      </c>
+      <c r="AG7" s="116">
+        <f t="shared" ref="AG7:AG9" si="5">+AA7*5%</f>
+        <v>20604.811786998358</v>
+      </c>
+      <c r="AH7" s="116">
         <f>+AC7*5%</f>
-        <v>6868.2705956661202</v>
-      </c>
-      <c r="AK7" s="146">
-        <f>+AD7*5%</f>
-        <v>8585.3382445826483</v>
-      </c>
-      <c r="AL7" s="146">
-        <f>+AE7*5%</f>
-        <v>10302.405893499179</v>
-      </c>
-      <c r="AM7" s="142"/>
-      <c r="AN7" s="142"/>
-      <c r="AO7" s="142"/>
-      <c r="AP7" s="142"/>
-      <c r="AQ7" s="142"/>
-      <c r="AR7" s="142"/>
-      <c r="AS7" s="142"/>
-      <c r="AT7" s="142"/>
+        <v>51512.0294674959</v>
+      </c>
+      <c r="AI7" s="116">
+        <f t="shared" ref="AI7:AI9" si="6">AC7*5%</f>
+        <v>51512.0294674959</v>
+      </c>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="112"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:43">
       <c r="A8">
         <v>3</v>
       </c>
@@ -13596,79 +16036,71 @@
       <c r="N8">
         <v>2499</v>
       </c>
-      <c r="S8">
+      <c r="R8">
         <v>250</v>
       </c>
-      <c r="V8" s="1">
-        <f>+SUM(I8,J8:M8,K8:O8,N8,Q8:T8)*20%</f>
+      <c r="U8" s="1">
+        <f>+SUM(I8,J8:M8,K8:N8,N8,P8:S8)*20%</f>
         <v>5287.0356666666676</v>
       </c>
-      <c r="W8" s="33">
-        <f>+SUM(I8,J8:T8,V8)</f>
+      <c r="V8" s="33">
+        <f>+SUM(I8,J8:S8,U8)</f>
         <v>23815.054000000004</v>
       </c>
-      <c r="X8" s="137">
+      <c r="W8" s="108">
         <f t="shared" si="2"/>
         <v>28578.064800000004</v>
       </c>
-      <c r="Z8" s="1">
-        <f>+(C8*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>17170.6764891653</v>
-      </c>
-      <c r="AA8" s="1">
-        <f>+(C8*20%)*'Estimación medias viviendas'!$F$9</f>
-        <v>34341.3529783306</v>
-      </c>
-      <c r="AB8" s="1">
-        <f>+(C8*30%)*'Estimación medias viviendas'!$F$9</f>
-        <v>51512.029467495893</v>
-      </c>
-      <c r="AC8" s="1">
-        <f>+(C8*40%)*'Estimación medias viviendas'!$F$9</f>
-        <v>68682.705956661201</v>
-      </c>
-      <c r="AD8" s="1">
-        <f>+(C8*50%)*'Estimación medias viviendas'!$F$9</f>
-        <v>85853.382445826486</v>
-      </c>
-      <c r="AE8" s="1">
-        <f>+(C8*60%)*'Estimación medias viviendas'!$F$9</f>
+      <c r="Y8" s="151">
+        <f>+(D8*0.5%)*'Estimación medias viviendas'!$F$9</f>
+        <v>25756.014733747947</v>
+      </c>
+      <c r="Z8" s="151">
+        <f>+(D8*2%)*'Estimación medias viviendas'!$F$9</f>
         <v>103024.05893499179</v>
       </c>
-      <c r="AG8" s="146">
-        <f>+Z8*5%</f>
-        <v>858.53382445826503</v>
-      </c>
-      <c r="AH8" s="146">
-        <f>+AA8*5%</f>
-        <v>1717.0676489165301</v>
-      </c>
-      <c r="AI8" s="146">
-        <f>+AB8*5%</f>
-        <v>2575.6014733747948</v>
-      </c>
-      <c r="AJ8" s="146">
+      <c r="AA8" s="151">
+        <f>+(D8*4%)*'Estimación medias viviendas'!$F$9</f>
+        <v>206048.11786998357</v>
+      </c>
+      <c r="AB8" s="151">
+        <f>+(D8*6%)*'Estimación medias viviendas'!$F$9</f>
+        <v>309072.17680497537</v>
+      </c>
+      <c r="AC8" s="151">
+        <f>+(D8*10%)*'Estimación medias viviendas'!$F$9</f>
+        <v>515120.29467495898</v>
+      </c>
+      <c r="AE8" s="116">
+        <f t="shared" si="3"/>
+        <v>1287.8007366873974</v>
+      </c>
+      <c r="AF8" s="116">
+        <f t="shared" si="4"/>
+        <v>5151.2029467495895</v>
+      </c>
+      <c r="AG8" s="116">
+        <f t="shared" si="5"/>
+        <v>10302.405893499179</v>
+      </c>
+      <c r="AH8" s="116">
         <f>+AC8*5%</f>
-        <v>3434.1352978330601</v>
-      </c>
-      <c r="AK8" s="146">
-        <f>+AD8*5%</f>
-        <v>4292.6691222913241</v>
-      </c>
-      <c r="AL8" s="146">
-        <f>+AE8*5%</f>
-        <v>5151.2029467495895</v>
-      </c>
-      <c r="AM8" s="142"/>
-      <c r="AN8" s="142"/>
-      <c r="AO8" s="142"/>
-      <c r="AP8" s="142"/>
-      <c r="AQ8" s="142"/>
-      <c r="AR8" s="142"/>
-      <c r="AS8" s="142"/>
-      <c r="AT8" s="142"/>
+        <v>25756.01473374795</v>
+      </c>
+      <c r="AI8" s="116">
+        <f t="shared" si="6"/>
+        <v>25756.01473374795</v>
+      </c>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:43">
       <c r="A9">
         <v>4</v>
       </c>
@@ -13710,116 +16142,106 @@
       <c r="N9">
         <v>1299</v>
       </c>
-      <c r="S9">
+      <c r="R9">
         <v>250</v>
       </c>
-      <c r="V9" s="1">
-        <f>+SUM(I9,J9:M9,K9:O9,N9,Q9:T9)*20%</f>
+      <c r="U9" s="1">
+        <f>+SUM(I9,J9:M9,K9:N9,N9,P9:S9)*20%</f>
         <v>4807.0356666666676</v>
       </c>
-      <c r="W9" s="33">
-        <f>+SUM(I9,J9:T9,V9)</f>
+      <c r="V9" s="33">
+        <f>+SUM(I9,J9:S9,U9)</f>
         <v>22135.054000000004</v>
       </c>
-      <c r="X9" s="137">
+      <c r="W9" s="108">
         <f t="shared" si="2"/>
         <v>26562.064800000004</v>
       </c>
-      <c r="Z9" s="1">
-        <f>+(C9*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>8585.3382445826501</v>
-      </c>
-      <c r="AA9" s="1">
-        <f>+(C9*20%)*'Estimación medias viviendas'!$F$9</f>
-        <v>17170.6764891653</v>
-      </c>
-      <c r="AB9" s="1">
-        <f>+(C9*30%)*'Estimación medias viviendas'!$F$9</f>
-        <v>25756.014733747947</v>
-      </c>
-      <c r="AC9" s="139">
-        <f>+(C9*40%)*'Estimación medias viviendas'!$F$9</f>
-        <v>34341.3529783306</v>
-      </c>
-      <c r="AD9" s="1">
-        <f>+(C9*50%)*'Estimación medias viviendas'!$F$9</f>
-        <v>42926.691222913243</v>
-      </c>
-      <c r="AE9" s="1">
-        <f>+(C9*60%)*'Estimación medias viviendas'!$F$9</f>
+      <c r="Y9" s="152">
+        <f>+(D9*0.5%)*'Estimación medias viviendas'!$F$9</f>
+        <v>12878.007366873973</v>
+      </c>
+      <c r="Z9" s="152">
+        <f>+(D9*2%)*'Estimación medias viviendas'!$F$9</f>
         <v>51512.029467495893</v>
       </c>
-      <c r="AG9" s="146">
-        <f>+Z9*5%</f>
-        <v>429.26691222913252</v>
-      </c>
-      <c r="AH9" s="146">
-        <f>+AA9*5%</f>
-        <v>858.53382445826503</v>
-      </c>
-      <c r="AI9" s="146">
-        <f>+AB9*5%</f>
-        <v>1287.8007366873974</v>
-      </c>
-      <c r="AJ9" s="146">
+      <c r="AA9" s="152">
+        <f>+(D9*4%)*'Estimación medias viviendas'!$F$9</f>
+        <v>103024.05893499179</v>
+      </c>
+      <c r="AB9" s="152">
+        <f>+(D9*6%)*'Estimación medias viviendas'!$F$9</f>
+        <v>154536.08840248769</v>
+      </c>
+      <c r="AC9" s="153">
+        <f>+(D9*10%)*'Estimación medias viviendas'!$F$9</f>
+        <v>257560.14733747949</v>
+      </c>
+      <c r="AE9" s="116">
+        <f t="shared" si="3"/>
+        <v>643.90036834369869</v>
+      </c>
+      <c r="AF9" s="116">
+        <f t="shared" si="4"/>
+        <v>2575.6014733747948</v>
+      </c>
+      <c r="AG9" s="116">
+        <f t="shared" si="5"/>
+        <v>5151.2029467495895</v>
+      </c>
+      <c r="AH9" s="116">
         <f>+AC9*5%</f>
-        <v>1717.0676489165301</v>
-      </c>
-      <c r="AK9" s="146">
-        <f>+AD9*5%</f>
-        <v>2146.3345611456621</v>
-      </c>
-      <c r="AL9" s="146">
-        <f>+AE9*5%</f>
-        <v>2575.6014733747948</v>
-      </c>
-      <c r="AM9" s="142"/>
-      <c r="AN9" s="142"/>
-      <c r="AO9" s="142"/>
-      <c r="AP9" s="142"/>
-      <c r="AQ9" s="142"/>
-      <c r="AR9" s="142"/>
-      <c r="AS9" s="142"/>
-      <c r="AT9" s="142"/>
+        <v>12878.007366873975</v>
+      </c>
+      <c r="AI9" s="116">
+        <f t="shared" si="6"/>
+        <v>12878.007366873975</v>
+      </c>
+      <c r="AJ9" s="112"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="112"/>
+      <c r="AN9" s="112"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="112"/>
+      <c r="AQ9" s="112"/>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:43">
       <c r="C10" s="5"/>
       <c r="E10" s="90"/>
-      <c r="X10" s="33"/>
-      <c r="AG10" s="142"/>
-      <c r="AH10" s="142"/>
-      <c r="AI10" s="142"/>
-      <c r="AJ10" s="142"/>
-      <c r="AK10" s="142"/>
-      <c r="AL10" s="142"/>
-      <c r="AM10" s="142"/>
-      <c r="AN10" s="142"/>
-      <c r="AO10" s="142"/>
-      <c r="AP10" s="142"/>
-      <c r="AQ10" s="142"/>
-      <c r="AR10" s="142"/>
-      <c r="AS10" s="142"/>
-      <c r="AT10" s="142"/>
+      <c r="W10" s="33"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="112"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="112"/>
+      <c r="AM10" s="112"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="112"/>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:43">
       <c r="C11" s="5"/>
-      <c r="X11" s="33"/>
-      <c r="AG11" s="142"/>
-      <c r="AH11" s="142"/>
-      <c r="AI11" s="142"/>
-      <c r="AJ11" s="142"/>
-      <c r="AK11" s="142"/>
-      <c r="AL11" s="142"/>
-      <c r="AM11" s="142"/>
-      <c r="AN11" s="142"/>
-      <c r="AO11" s="142"/>
-      <c r="AP11" s="142"/>
-      <c r="AQ11" s="142"/>
-      <c r="AR11" s="142"/>
-      <c r="AS11" s="142"/>
-      <c r="AT11" s="142"/>
+      <c r="W11" s="33"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="112"/>
+      <c r="AM11" s="112"/>
+      <c r="AN11" s="112"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:43">
       <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
@@ -13832,7 +16254,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -13841,45 +16263,42 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="P12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="V12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W12" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="X12" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z12" s="6" t="s">
+      <c r="V12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="W12" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y12" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AG12" s="140" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="141"/>
-      <c r="AJ12" s="141"/>
-      <c r="AK12" s="141"/>
-      <c r="AL12" s="141"/>
-      <c r="AM12" s="142"/>
+      <c r="AE12" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="112"/>
     </row>
-    <row r="13" spans="1:46" ht="57" customHeight="1">
+    <row r="13" spans="1:43" ht="57" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="38" t="s">
@@ -13900,7 +16319,7 @@
       <c r="K13" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="133" t="s">
+      <c r="L13" s="104" t="s">
         <v>165</v>
       </c>
       <c r="M13" s="41" t="s">
@@ -13909,68 +16328,59 @@
       <c r="N13" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="42" t="s">
+        <v>170</v>
+      </c>
       <c r="Q13" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="R13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="R13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="T13" s="42"/>
-      <c r="V13" s="94" t="s">
+      <c r="S13" s="42"/>
+      <c r="U13" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="V13" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="W13" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y13" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z13" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA13" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB13" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC13" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE13" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF13" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG13" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH13" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="W13" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="X13" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z13" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA13" s="130" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB13" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC13" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD13" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE13" s="130" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG13" s="147" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH13" s="147" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI13" s="147" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ13" s="147" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK13" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL13" s="147" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM13" s="142"/>
+      <c r="AI13" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ13" s="112"/>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:43">
       <c r="A14">
         <v>1</v>
       </c>
@@ -13982,7 +16392,7 @@
         <v>1440</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D16" si="3">+C14*30</f>
+        <f t="shared" ref="D14:D16" si="7">+C14*30</f>
         <v>43200</v>
       </c>
       <c r="E14">
@@ -14004,83 +16414,75 @@
       <c r="N14">
         <v>2499</v>
       </c>
-      <c r="Q14">
+      <c r="P14">
         <f>33.7*9</f>
         <v>303.3</v>
       </c>
-      <c r="S14">
+      <c r="R14">
         <v>250</v>
       </c>
-      <c r="V14" s="1">
-        <f>+SUM(I14,J14:M14,K14:O14,N14,Q14:T14)*35%</f>
+      <c r="U14" s="1">
+        <f>+SUM(I14,J14:M14,K14:N14,N14,P14:S14)*35%</f>
         <v>9214.0836666666655</v>
       </c>
-      <c r="W14" s="33">
-        <f>+SUM(I14,J14:T14,V14)*E14</f>
+      <c r="V14" s="33">
+        <f>+SUM(I14,J14:S14,U14)*E14</f>
         <v>331594.52399999998</v>
       </c>
-      <c r="X14" s="137">
+      <c r="W14" s="108">
         <f t="shared" si="2"/>
         <v>397913.42879999999</v>
       </c>
-      <c r="Z14" s="1">
-        <f>+((C14*10%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>824192.47147993441</v>
-      </c>
-      <c r="AA14" s="1">
-        <f>+((C14*20%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>1648384.9429598688</v>
-      </c>
-      <c r="AB14" s="1">
-        <f>+((C14*30%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>2472577.414439803</v>
-      </c>
-      <c r="AC14" s="1">
-        <f>+((C14*40%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>3296769.8859197376</v>
-      </c>
-      <c r="AD14" s="1">
-        <f>+((C14*50%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>4120962.3573996713</v>
-      </c>
-      <c r="AE14" s="1">
-        <f>+((C14*60%)*'Estimación medias viviendas'!$F$9)*E14</f>
+      <c r="Y14" s="148">
+        <f>+((D14*0.5%)*'Estimación medias viviendas'!$F$9)*E14</f>
+        <v>1236288.7072199015</v>
+      </c>
+      <c r="Z14" s="148">
+        <f>+((D14*2%)*'Estimación medias viviendas'!$F$9)*E14</f>
         <v>4945154.828879606</v>
       </c>
-      <c r="AG14" s="146">
+      <c r="AA14" s="148">
+        <f>+((D14*4%)*'Estimación medias viviendas'!$F$9)*E14</f>
+        <v>9890309.657759212</v>
+      </c>
+      <c r="AB14" s="148">
+        <f>+((D14*6%)*'Estimación medias viviendas'!$F$9)*12</f>
+        <v>14835464.486638818</v>
+      </c>
+      <c r="AC14" s="148">
+        <f>+((D14*10%)*'Estimación medias viviendas'!$F$9)*E14</f>
+        <v>24725774.14439803</v>
+      </c>
+      <c r="AE14" s="116">
+        <f>+Y14*5%</f>
+        <v>61814.435360995078</v>
+      </c>
+      <c r="AF14" s="116">
         <f>+Z14*5%</f>
-        <v>41209.623573996723</v>
-      </c>
-      <c r="AH14" s="146">
+        <v>247257.74144398031</v>
+      </c>
+      <c r="AG14" s="116">
         <f>+AA14*5%</f>
-        <v>82419.247147993447</v>
-      </c>
-      <c r="AI14" s="146">
+        <v>494515.48288796062</v>
+      </c>
+      <c r="AH14" s="116">
         <f>+AB14*5%</f>
-        <v>123628.87072199016</v>
-      </c>
-      <c r="AJ14" s="146">
+        <v>741773.22433194099</v>
+      </c>
+      <c r="AI14" s="116">
         <f>+AC14*5%</f>
-        <v>164838.49429598689</v>
-      </c>
-      <c r="AK14" s="146">
-        <f>+AD14*5%</f>
-        <v>206048.11786998357</v>
-      </c>
-      <c r="AL14" s="146">
-        <f>+AE14*5%</f>
-        <v>247257.74144398031</v>
-      </c>
-      <c r="AM14" s="142"/>
-      <c r="AN14" s="142"/>
-      <c r="AO14" s="142"/>
-      <c r="AP14" s="142"/>
-      <c r="AQ14" s="142"/>
-      <c r="AR14" s="142"/>
-      <c r="AS14" s="142"/>
-      <c r="AT14" s="142"/>
+        <v>1236288.7072199015</v>
+      </c>
+      <c r="AJ14" s="112"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="112"/>
+      <c r="AM14" s="112"/>
+      <c r="AN14" s="112"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="112"/>
+      <c r="AQ14" s="112"/>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:43">
       <c r="A15">
         <v>2</v>
       </c>
@@ -14092,7 +16494,7 @@
         <v>720</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21600</v>
       </c>
       <c r="E15">
@@ -14114,83 +16516,75 @@
       <c r="N15">
         <v>2499</v>
       </c>
-      <c r="Q15">
-        <f t="shared" ref="Q15:Q17" si="4">33.7*9</f>
+      <c r="P15">
+        <f t="shared" ref="P15:P17" si="8">33.7*9</f>
         <v>303.3</v>
       </c>
-      <c r="S15">
+      <c r="R15">
         <v>250</v>
       </c>
-      <c r="V15" s="1">
-        <f t="shared" ref="V15:V17" si="5">+SUM(I15,J15:M15,K15:O15,N15,Q15:T15)*35%</f>
+      <c r="U15" s="1">
+        <f>+SUM(I15,J15:M15,K15:N15,N15,P15:S15)*35%</f>
         <v>9214.0836666666655</v>
       </c>
-      <c r="W15" s="33">
-        <f>+SUM(I15,J15:T15,V15)*E15</f>
+      <c r="V15" s="33">
+        <f>+SUM(I15,J15:S15,U15)*E15</f>
         <v>331594.52399999998</v>
       </c>
-      <c r="X15" s="137">
+      <c r="W15" s="108">
         <f t="shared" si="2"/>
         <v>397913.42879999999</v>
       </c>
-      <c r="Z15" s="1">
-        <f>+((C15*10%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>412096.2357399672</v>
-      </c>
-      <c r="AA15" s="1">
-        <f>+((C15*20%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>824192.47147993441</v>
-      </c>
-      <c r="AB15" s="1">
-        <f>+((C15*30%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>1236288.7072199015</v>
-      </c>
-      <c r="AC15" s="1">
-        <f>+((C15*40%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>1648384.9429598688</v>
-      </c>
-      <c r="AD15" s="1">
-        <f>+((C15*50%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>2060481.1786998357</v>
-      </c>
-      <c r="AE15" s="1">
-        <f>+((C15*60%)*'Estimación medias viviendas'!$F$9)*E15</f>
+      <c r="Y15" s="149">
+        <f>+((D15*0.5%)*'Estimación medias viviendas'!$F$9)*E15</f>
+        <v>618144.35360995075</v>
+      </c>
+      <c r="Z15" s="149">
+        <f>+((D15*2%)*'Estimación medias viviendas'!$F$9)*E15</f>
         <v>2472577.414439803</v>
       </c>
-      <c r="AG15" s="146">
-        <f>+Z15*5%</f>
-        <v>20604.811786998362</v>
-      </c>
-      <c r="AH15" s="146">
-        <f>+AA15*5%</f>
-        <v>41209.623573996723</v>
-      </c>
-      <c r="AI15" s="146">
-        <f>+AB15*5%</f>
-        <v>61814.435360995078</v>
-      </c>
-      <c r="AJ15" s="146">
-        <f>+AC15*5%</f>
-        <v>82419.247147993447</v>
-      </c>
-      <c r="AK15" s="146">
-        <f>+AD15*5%</f>
-        <v>103024.05893499179</v>
-      </c>
-      <c r="AL15" s="146">
-        <f>+AE15*5%</f>
+      <c r="AA15" s="149">
+        <f>+((D15*4%)*'Estimación medias viviendas'!$F$9)*E15</f>
+        <v>4945154.828879606</v>
+      </c>
+      <c r="AB15" s="149">
+        <f>+((D15*6%)*'Estimación medias viviendas'!$F$9)*12</f>
+        <v>7417732.243319409</v>
+      </c>
+      <c r="AC15" s="149">
+        <f>+((D15*10%)*'Estimación medias viviendas'!$F$9)*E15</f>
+        <v>12362887.072199015</v>
+      </c>
+      <c r="AE15" s="116">
+        <f t="shared" ref="AE15:AE17" si="9">+Y15*5%</f>
+        <v>30907.217680497539</v>
+      </c>
+      <c r="AF15" s="116">
+        <f t="shared" ref="AF15:AF17" si="10">+Z15*5%</f>
         <v>123628.87072199016</v>
       </c>
-      <c r="AM15" s="142"/>
-      <c r="AN15" s="142"/>
-      <c r="AO15" s="142"/>
-      <c r="AP15" s="142"/>
-      <c r="AQ15" s="142"/>
-      <c r="AR15" s="142"/>
-      <c r="AS15" s="142"/>
-      <c r="AT15" s="142"/>
+      <c r="AG15" s="116">
+        <f t="shared" ref="AG15:AG17" si="11">+AA15*5%</f>
+        <v>247257.74144398031</v>
+      </c>
+      <c r="AH15" s="116">
+        <f t="shared" ref="AH15:AH17" si="12">+AB15*5%</f>
+        <v>370886.61216597049</v>
+      </c>
+      <c r="AI15" s="116">
+        <f t="shared" ref="AI15:AI17" si="13">+AC15*5%</f>
+        <v>618144.35360995075</v>
+      </c>
+      <c r="AJ15" s="112"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="112"/>
+      <c r="AM15" s="112"/>
+      <c r="AN15" s="112"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="112"/>
+      <c r="AQ15" s="112"/>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:43">
       <c r="A16">
         <v>3</v>
       </c>
@@ -14201,7 +16595,7 @@
         <v>360</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10800</v>
       </c>
       <c r="E16">
@@ -14223,83 +16617,75 @@
       <c r="N16">
         <v>2499</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="4"/>
+      <c r="P16">
+        <f t="shared" si="8"/>
         <v>303.3</v>
       </c>
-      <c r="S16">
+      <c r="R16">
         <v>250</v>
       </c>
-      <c r="V16" s="1">
-        <f t="shared" si="5"/>
+      <c r="U16" s="1">
+        <f>+SUM(I16,J16:M16,K16:N16,N16,P16:S16)*35%</f>
         <v>9214.0836666666655</v>
       </c>
-      <c r="W16" s="33">
-        <f>+SUM(I16,J16:T16,V16)*E16</f>
+      <c r="V16" s="33">
+        <f>+SUM(I16,J16:S16,U16)*E16</f>
         <v>331594.52399999998</v>
       </c>
-      <c r="X16" s="137">
+      <c r="W16" s="108">
         <f t="shared" si="2"/>
         <v>397913.42879999999</v>
       </c>
-      <c r="Z16" s="1">
-        <f>+((C16*10%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>206048.1178699836</v>
-      </c>
-      <c r="AA16" s="1">
-        <f>+((C16*20%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>412096.2357399672</v>
-      </c>
-      <c r="AB16" s="1">
-        <f>+((C16*30%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>618144.35360995075</v>
-      </c>
-      <c r="AC16" s="1">
-        <f>+((C16*40%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>824192.47147993441</v>
-      </c>
-      <c r="AD16" s="1">
-        <f>+((C16*50%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>1030240.5893499178</v>
-      </c>
-      <c r="AE16" s="1">
-        <f>+((C16*60%)*'Estimación medias viviendas'!$F$9)*E16</f>
+      <c r="Y16" s="151">
+        <f>+((D16*0.5%)*'Estimación medias viviendas'!$F$9)*E16</f>
+        <v>309072.17680497537</v>
+      </c>
+      <c r="Z16" s="151">
+        <f>+((D16*2%)*'Estimación medias viviendas'!$F$9)*E16</f>
         <v>1236288.7072199015</v>
       </c>
-      <c r="AG16" s="146">
-        <f>+Z16*5%</f>
-        <v>10302.405893499181</v>
-      </c>
-      <c r="AH16" s="146">
-        <f>+AA16*5%</f>
-        <v>20604.811786998362</v>
-      </c>
-      <c r="AI16" s="146">
-        <f>+AB16*5%</f>
-        <v>30907.217680497539</v>
-      </c>
-      <c r="AJ16" s="146">
-        <f>+AC16*5%</f>
-        <v>41209.623573996723</v>
-      </c>
-      <c r="AK16" s="146">
-        <f>+AD16*5%</f>
-        <v>51512.029467495893</v>
-      </c>
-      <c r="AL16" s="146">
-        <f>+AE16*5%</f>
+      <c r="AA16" s="151">
+        <f>+((D16*4%)*'Estimación medias viviendas'!$F$9)*E16</f>
+        <v>2472577.414439803</v>
+      </c>
+      <c r="AB16" s="151">
+        <f>+((D16*6%)*'Estimación medias viviendas'!$F$9)*12</f>
+        <v>3708866.1216597045</v>
+      </c>
+      <c r="AC16" s="151">
+        <f>+((D16*10%)*'Estimación medias viviendas'!$F$9)*E16</f>
+        <v>6181443.5360995075</v>
+      </c>
+      <c r="AE16" s="116">
+        <f t="shared" si="9"/>
+        <v>15453.608840248769</v>
+      </c>
+      <c r="AF16" s="116">
+        <f t="shared" si="10"/>
         <v>61814.435360995078</v>
       </c>
-      <c r="AM16" s="142"/>
-      <c r="AN16" s="142"/>
-      <c r="AO16" s="142"/>
-      <c r="AP16" s="142"/>
-      <c r="AQ16" s="142"/>
-      <c r="AR16" s="142"/>
-      <c r="AS16" s="142"/>
-      <c r="AT16" s="142"/>
+      <c r="AG16" s="116">
+        <f t="shared" si="11"/>
+        <v>123628.87072199016</v>
+      </c>
+      <c r="AH16" s="116">
+        <f t="shared" si="12"/>
+        <v>185443.30608298525</v>
+      </c>
+      <c r="AI16" s="116">
+        <f t="shared" si="13"/>
+        <v>309072.17680497537</v>
+      </c>
+      <c r="AJ16" s="112"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="112"/>
+      <c r="AM16" s="112"/>
+      <c r="AN16" s="112"/>
+      <c r="AO16" s="112"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="112"/>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>4</v>
       </c>
@@ -14333,103 +16719,94 @@
       <c r="N17">
         <v>1299</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
+      <c r="P17">
+        <f t="shared" si="8"/>
         <v>303.3</v>
       </c>
-      <c r="S17">
+      <c r="R17">
         <v>250</v>
       </c>
-      <c r="V17" s="1">
-        <f t="shared" si="5"/>
+      <c r="U17" s="1">
+        <f>+SUM(I17,J17:M17,K17:N17,N17,P17:S17)*35%</f>
         <v>8374.0836666666655</v>
       </c>
-      <c r="W17" s="33">
-        <f>+SUM(I17,J17:T17,V17)*E17</f>
+      <c r="V17" s="33">
+        <f>+SUM(I17,J17:S17,U17)*E17</f>
         <v>307114.52399999998</v>
       </c>
-      <c r="X17" s="137">
+      <c r="W17" s="108">
         <f t="shared" si="2"/>
         <v>368537.42879999999</v>
       </c>
-      <c r="Z17" s="1">
-        <f>+((C17*10%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>103024.0589349918</v>
-      </c>
-      <c r="AA17" s="1">
-        <f>+((C17*20%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>206048.1178699836</v>
-      </c>
-      <c r="AB17" s="1">
-        <f>+((C17*30%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>309072.17680497537</v>
-      </c>
-      <c r="AC17" s="139">
-        <f>+((C17*40%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>412096.2357399672</v>
-      </c>
-      <c r="AD17" s="1">
-        <f>+((C17*50%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>515120.29467495892</v>
-      </c>
-      <c r="AE17" s="1">
-        <f>+((C17*60%)*'Estimación medias viviendas'!$F$9)*E17</f>
+      <c r="Y17" s="152">
+        <f>+((D17*0.5%)*'Estimación medias viviendas'!$F$9)*E17</f>
+        <v>154536.08840248769</v>
+      </c>
+      <c r="Z17" s="152">
+        <f>+((D17*2%)*'Estimación medias viviendas'!$F$9)*E17</f>
         <v>618144.35360995075</v>
       </c>
-      <c r="AG17" s="146">
-        <f>+Z17*5%</f>
-        <v>5151.2029467495904</v>
-      </c>
-      <c r="AH17" s="146">
-        <f>+AA17*5%</f>
-        <v>10302.405893499181</v>
-      </c>
-      <c r="AI17" s="146">
-        <f>+AB17*5%</f>
-        <v>15453.608840248769</v>
-      </c>
-      <c r="AJ17" s="146">
-        <f>+AC17*5%</f>
-        <v>20604.811786998362</v>
-      </c>
-      <c r="AK17" s="146">
-        <f>+AD17*5%</f>
-        <v>25756.014733747947</v>
-      </c>
-      <c r="AL17" s="146">
-        <f>+AE17*5%</f>
+      <c r="AA17" s="152">
+        <f>+((D17*4%)*'Estimación medias viviendas'!$F$9)*E17</f>
+        <v>1236288.7072199015</v>
+      </c>
+      <c r="AB17" s="152">
+        <f>+((D17*6%)*'Estimación medias viviendas'!$F$9)*12</f>
+        <v>1854433.0608298522</v>
+      </c>
+      <c r="AC17" s="153">
+        <f>+((D17*10%)*'Estimación medias viviendas'!$F$9)*E17</f>
+        <v>3090721.7680497537</v>
+      </c>
+      <c r="AE17" s="116">
+        <f t="shared" si="9"/>
+        <v>7726.8044201243847</v>
+      </c>
+      <c r="AF17" s="116">
+        <f t="shared" si="10"/>
         <v>30907.217680497539</v>
       </c>
-      <c r="AM17" s="142"/>
-      <c r="AN17" s="142"/>
-      <c r="AO17" s="142"/>
-      <c r="AP17" s="142"/>
-      <c r="AQ17" s="142"/>
-      <c r="AR17" s="142"/>
-      <c r="AS17" s="142"/>
-      <c r="AT17" s="142"/>
+      <c r="AG17" s="116">
+        <f t="shared" si="11"/>
+        <v>61814.435360995078</v>
+      </c>
+      <c r="AH17" s="116">
+        <f t="shared" si="12"/>
+        <v>92721.653041492624</v>
+      </c>
+      <c r="AI17" s="116">
+        <f t="shared" si="13"/>
+        <v>154536.08840248769</v>
+      </c>
+      <c r="AJ17" s="112"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="112"/>
+      <c r="AM17" s="112"/>
+      <c r="AN17" s="112"/>
+      <c r="AO17" s="112"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="112"/>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:43">
       <c r="C18" s="5"/>
-      <c r="AG18" s="142"/>
-      <c r="AH18" s="142"/>
-      <c r="AI18" s="142"/>
-      <c r="AJ18" s="142"/>
-      <c r="AK18" s="142"/>
-      <c r="AL18" s="142"/>
-      <c r="AM18" s="142"/>
-      <c r="AN18" s="142"/>
-      <c r="AO18" s="142"/>
-      <c r="AP18" s="142"/>
-      <c r="AQ18" s="142"/>
-      <c r="AR18" s="142"/>
-      <c r="AS18" s="142"/>
-      <c r="AT18" s="142"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
+      <c r="AK18" s="112"/>
+      <c r="AL18" s="112"/>
+      <c r="AM18" s="112"/>
+      <c r="AN18" s="112"/>
+      <c r="AO18" s="112"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="112"/>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:43">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:43">
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
         <v>82</v>
@@ -14449,26 +16826,25 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="V20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="V20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X20" s="134"/>
+      <c r="W20" s="105"/>
     </row>
-    <row r="21" spans="1:46" ht="28.8">
+    <row r="21" spans="1:43" ht="28.8">
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="100" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="38"/>
@@ -14496,27 +16872,24 @@
       <c r="N21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="Q21" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="92"/>
-      <c r="T21" s="42"/>
-      <c r="V21" s="45">
+      <c r="R21" s="92"/>
+      <c r="S21" s="42"/>
+      <c r="U21" s="45">
         <v>0.2</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="V21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="X21" s="134"/>
+      <c r="W21" s="105"/>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:43">
       <c r="B22">
         <v>0</v>
       </c>
@@ -14547,59 +16920,88 @@
       <c r="N22">
         <v>0</v>
       </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <f>+SUM(I22,J22:M22,K22:O22,N22,Q22:T22)*20%</f>
+      <c r="U22" s="1">
+        <f>+SUM(I22,J22:M22,K22:N22,N22,P22:S22)*20%</f>
         <v>370.87033333333329</v>
       </c>
-      <c r="W22" s="33">
-        <f>+SUM(I22,J22:T22,V22)*E22</f>
+      <c r="V22" s="33">
+        <f>+SUM(I22,J22:S22,U22)*E22</f>
         <v>1072.721</v>
       </c>
-      <c r="X22" s="33"/>
+      <c r="W22" s="33"/>
     </row>
-    <row r="25" spans="1:46">
-      <c r="Z25" s="145" t="s">
-        <v>225</v>
+    <row r="26" spans="1:43">
+      <c r="B26" s="115" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
-      <c r="Z26" s="140" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="141"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="141"/>
-      <c r="AF26" s="141"/>
-    </row>
-    <row r="27" spans="1:46" ht="72">
+    <row r="27" spans="1:43">
+      <c r="B27" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
       <c r="L27" s="28"/>
       <c r="M27" s="36"/>
       <c r="N27" s="27"/>
-      <c r="Z27" s="147" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA27" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB27" s="148" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC27" s="148" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD27" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="149"/>
+      <c r="P27" s="150">
+        <v>0.1</v>
+      </c>
+      <c r="Q27">
+        <f>+D14*10%</f>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="B28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="118"/>
+      <c r="P28" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>+'Estimación medias viviendas'!F9</f>
+        <v>476.96323581014718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q29" s="1">
+        <f>+Q27*Q28</f>
+        <v>2060481.1786998359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>+Q29*12</f>
+        <v>24725774.14439803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="37" spans="8:14">
       <c r="H37" s="16" t="s">
@@ -14612,7 +17014,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="8:14">
+    <row r="38" spans="8:14" ht="27">
       <c r="H38" s="18" t="s">
         <v>28</v>
       </c>
@@ -14634,7 +17036,7 @@
       </c>
     </row>
     <row r="39" spans="8:14" ht="39.6">
-      <c r="H39" s="95" t="s">
+      <c r="H39" s="119" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="20" t="s">
@@ -14657,7 +17059,7 @@
       </c>
     </row>
     <row r="40" spans="8:14" ht="39.6">
-      <c r="H40" s="96"/>
+      <c r="H40" s="120"/>
       <c r="I40" s="20" t="s">
         <v>168</v>
       </c>
@@ -14847,10 +17249,10 @@
     <hyperlink ref="M5" r:id="rId1" display="Alojamiento web" xr:uid="{7E8C7F76-04F8-44A6-8B84-D531E4416EDC}"/>
     <hyperlink ref="N5" r:id="rId2" xr:uid="{6368095E-0CC9-47E3-847B-256552228F07}"/>
     <hyperlink ref="K5" r:id="rId3" location="id=9dcfeb0c-cb2c-4885-ac96-fb122f74f234" display="id=9dcfeb0c-cb2c-4885-ac96-fb122f74f234" xr:uid="{249F7151-7AD0-4A39-93A0-A7DED26C9BAE}"/>
-    <hyperlink ref="S5" r:id="rId4" display="local" xr:uid="{040FEB01-149B-4C45-8E99-742E90878E11}"/>
+    <hyperlink ref="R5" r:id="rId4" display="local" xr:uid="{040FEB01-149B-4C45-8E99-742E90878E11}"/>
     <hyperlink ref="M13" r:id="rId5" display="Alojamiento web" xr:uid="{3C35A8EE-248B-41D7-A335-CF506F4A18D3}"/>
     <hyperlink ref="N13" r:id="rId6" xr:uid="{27FC66EC-03AC-46D8-AB17-7AEA030C1C0D}"/>
-    <hyperlink ref="S13" r:id="rId7" display="local" xr:uid="{F403EA20-D19D-4424-98CE-EDD8346CD679}"/>
+    <hyperlink ref="R13" r:id="rId7" display="local" xr:uid="{F403EA20-D19D-4424-98CE-EDD8346CD679}"/>
     <hyperlink ref="L21" r:id="rId8" location="id=85d2f3d8-540c-44d7-9115-ffb3e7b0f6f7" display="Instancia Cloud" xr:uid="{B913A44E-BD44-4F40-AC98-06E9D95CF4C2}"/>
     <hyperlink ref="N21" r:id="rId9" xr:uid="{0C4A50AD-BFF7-4B96-A67F-A1DD7C8A500B}"/>
     <hyperlink ref="K13" r:id="rId10" location="id=e06018ff-51dc-4531-b361-1c7029c277ab" xr:uid="{588F3624-8346-4642-86FB-E9E737EDED41}"/>
@@ -14869,7 +17271,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S5" sqref="R5:S13"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -14934,22 +17336,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="51"/>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
       <c r="I3" s="63"/>
       <c r="J3" s="67" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="68"/>
       <c r="L3" s="68"/>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
       <c r="P3" s="76"/>
       <c r="Q3" s="76"/>
       <c r="R3" s="76"/>
@@ -15708,22 +18110,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="99" t="s">
         <v>187</v>
       </c>
     </row>
@@ -15740,7 +18142,7 @@
       <c r="D2" s="1">
         <v>970.0322580645161</v>
       </c>
-      <c r="E2" s="124">
+      <c r="E2" s="95">
         <v>0.15771922610530908</v>
       </c>
       <c r="F2" s="1">
@@ -15761,7 +18163,7 @@
       <c r="D3" s="1">
         <v>924.8</v>
       </c>
-      <c r="E3" s="124">
+      <c r="E3" s="95">
         <v>0.16006579195810797</v>
       </c>
       <c r="F3" s="1">
@@ -15782,7 +18184,7 @@
       <c r="D4" s="1">
         <v>964.31428571428569</v>
       </c>
-      <c r="E4" s="124">
+      <c r="E4" s="95">
         <v>0.14161635064428285</v>
       </c>
       <c r="F4" s="1">
@@ -15803,7 +18205,7 @@
       <c r="D5" s="1">
         <v>940.32624113475174</v>
       </c>
-      <c r="E5" s="124">
+      <c r="E5" s="95">
         <v>0.13907991960625526</v>
       </c>
       <c r="F5" s="1">
@@ -15824,7 +18226,7 @@
       <c r="D6" s="1">
         <v>943.20895522388059</v>
       </c>
-      <c r="E6" s="124">
+      <c r="E6" s="95">
         <v>0.13258044619367507</v>
       </c>
       <c r="F6" s="1">
@@ -15845,7 +18247,7 @@
       <c r="D7" s="1">
         <v>966.3739837398374</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="95">
         <v>0.12468583081228732</v>
       </c>
       <c r="F7" s="1">
@@ -15866,7 +18268,7 @@
       <c r="D8" s="1">
         <v>968.42957746478874</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="95">
         <v>0.14425243468008242</v>
       </c>
       <c r="F8" s="1">
@@ -15887,10 +18289,10 @@
       <c r="D9" s="1">
         <v>953.30799999999999</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="95">
         <v>1</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="98">
         <f>+AVERAGE(F2:F8)</f>
         <v>476.96323581014718</v>
       </c>

--- a/Costes/Costes proyecto. Provisional.xlsx
+++ b/Costes/Costes proyecto. Provisional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffa0bef86689d611/Escritorio/EDEM/PROYECTO 2 QL/dataproject2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffa0bef86689d611/Escritorio/EDEM/PROYECTO 2 QL/dataproject2/Costes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1613" documentId="8_{B7027531-4904-4DBC-882C-9FB6F5C32DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{093CFF24-E456-48D9-A38C-B5B40A74E10F}"/>
+  <xr:revisionPtr revIDLastSave="1690" documentId="8_{B7027531-4904-4DBC-882C-9FB6F5C32DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1C5BDC62-C6AF-44C1-81DF-1EA33B5AFCA5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{5FEC1257-C56C-46B2-84BE-26EF89348FD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FEC1257-C56C-46B2-84BE-26EF89348FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen costes" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="costes personal" sheetId="2" r:id="rId4"/>
     <sheet name="Estimación medias viviendas" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'horas roles costes'!$A$3:$Q$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
@@ -151,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="240">
   <si>
     <t>COSTES</t>
   </si>
@@ -662,9 +665,6 @@
     <t>coste</t>
   </si>
   <si>
-    <t>PROYECTO</t>
-  </si>
-  <si>
     <t>*Origen Información: Glassdoor. Medias por zonas Valencia</t>
   </si>
   <si>
@@ -782,9 +782,6 @@
     <t>ESCENARIOS Y TIPO PROYECTO</t>
   </si>
   <si>
-    <t>INGRESOS. RECUPERACIÓN INVERSIÓN QL VÍA COMISIÓN (50% SOBRE COSTE MENSUAL)</t>
-  </si>
-  <si>
     <t>COSTES AÑO</t>
   </si>
   <si>
@@ -839,10 +836,6 @@
 (BARES, REST., OCIO…)</t>
   </si>
   <si>
-    <t>+BENEFICIO INDUSTRIAL
-KARIMUNJAWA</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -931,6 +924,28 @@
   <si>
     <t>loCal emprendis
  las artes</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>COSTES+ 20% BENEFICIO INDUSTRIAL
+KARIMUNJAWA</t>
+  </si>
+  <si>
+    <t>COSTES + 20% BENEFICIO INDUSTRIAL KARIMUNJAWA</t>
+  </si>
+  <si>
+    <t>Días</t>
+  </si>
+  <si>
+    <t>INGRESOS. RECUPERACIÓN INVERSIÓN QL VÍA COMISIÓN (50% SOBRE MEDIA CUOTA ALQUILER MENSUAL) - COSTE FINAL</t>
+  </si>
+  <si>
+    <t>9 días</t>
+  </si>
+  <si>
+    <t>12 días</t>
   </si>
 </sst>
 </file>
@@ -940,7 +955,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,27 +1197,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1427,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1647,11 +1641,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1680,13 +1697,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1698,28 +1709,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1734,18 +1730,20 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1775,12 +1773,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1913,22 +1905,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:f>escenarios!$Y$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>ESC A  →0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ESC B  →2% 
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>ESD C → 4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ESD D→ 6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ESD D→ 10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -1937,21 +1933,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$6:$AC$6</c:f>
+              <c:f>escenarios!$Y$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>412096.23573996715</c:v>
+                  <c:v>74445.994134991779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>824192.47147993429</c:v>
+                  <c:v>383518.17093996715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1236288.7072199015</c:v>
+                  <c:v>795614.40667993424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2060481.1786998359</c:v>
+                  <c:v>1207710.6424199014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2031903.1138998359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,22 +1991,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:f>escenarios!$Y$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>ESC A  →0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ESC B  →2% 
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>ESD C → 4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ESD D→ 6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ESD D→ 10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -2016,21 +2019,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$7:$AC$7</c:f>
+              <c:f>escenarios!$Y$7:$AC$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>206048.11786998357</c:v>
+                  <c:v>22933.964667495889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412096.23573996715</c:v>
+                  <c:v>177470.05306998358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>618144.35360995075</c:v>
+                  <c:v>383518.17093996715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1030240.589349918</c:v>
+                  <c:v>589566.2888099507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1001662.5245499179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,22 +2077,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:f>escenarios!$Y$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>ESC A  →0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ESC B  →2% 
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>ESD C → 4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ESD D→ 6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ESD D→ 10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -2095,21 +2105,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$8:$AC$8</c:f>
+              <c:f>escenarios!$Y$8:$AC$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>103024.05893499179</c:v>
+                  <c:v>-2822.0500662520571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206048.11786998357</c:v>
+                  <c:v>74445.994134991779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>309072.17680497537</c:v>
+                  <c:v>177470.05306998358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>515120.29467495898</c:v>
+                  <c:v>280494.11200497538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>486542.22987495898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,22 +2163,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$5:$AC$5</c:f>
+              <c:f>escenarios!$Y$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>ESC A  →0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ESC B  →2% 
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>ESD C → 4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ESD D→ 6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ESD D→ 10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -2174,21 +2191,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$9:$AC$9</c:f>
+              <c:f>escenarios!$Y$9:$AC$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>51512.029467495893</c:v>
+                  <c:v>-13684.05743312603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103024.05893499179</c:v>
+                  <c:v>24949.964667495889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154536.08840248769</c:v>
+                  <c:v>76461.994134991779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257560.14733747949</c:v>
+                  <c:v>127974.02360248768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230998.08253747949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,22 +2550,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:f>escenarios!$Y$13:$AC$13</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2%
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -2554,21 +2578,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$14:$AC$14</c:f>
+              <c:f>escenarios!$Y$14:$AC$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4945154.828879606</c:v>
+                  <c:v>838375.2784199015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9890309.657759212</c:v>
+                  <c:v>4547241.4000796061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14835464.486638818</c:v>
+                  <c:v>9492396.2289592121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24725774.14439803</c:v>
+                  <c:v>14437551.057838818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24327860.715598028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,22 +2636,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:f>escenarios!$Y$13:$AC$13</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2%
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -2633,21 +2664,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$15:$AC$15</c:f>
+              <c:f>escenarios!$Y$15:$AC$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2472577.414439803</c:v>
+                  <c:v>220230.92480995075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4945154.828879606</c:v>
+                  <c:v>2074663.9856398031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7417732.243319409</c:v>
+                  <c:v>4547241.4000796061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12362887.072199015</c:v>
+                  <c:v>7019818.8145194091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11964973.643399015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,22 +2722,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:f>escenarios!$Y$13:$AC$13</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2%
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -2712,21 +2750,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$16:$AC$16</c:f>
+              <c:f>escenarios!$Y$16:$AC$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1236288.7072199015</c:v>
+                  <c:v>-88841.251995024621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2472577.414439803</c:v>
+                  <c:v>838375.2784199015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3708866.1216597045</c:v>
+                  <c:v>2074663.9856398031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6181443.5360995075</c:v>
+                  <c:v>3310952.6928597046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5783530.1072995076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2767,22 +2808,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>escenarios!$Z$13:$AC$13</c:f>
+              <c:f>escenarios!$Y$13:$AC$13</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0,5% 
+volumen mensual</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2%
 volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6% 
 Volumen mensual</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10%
 Volumen mensual</c:v>
                 </c:pt>
@@ -2791,21 +2836,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>escenarios!$Z$17:$AC$17</c:f>
+              <c:f>escenarios!$Y$17:$AC$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>618144.35360995075</c:v>
+                  <c:v>-214001.34039751231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1236288.7072199015</c:v>
+                  <c:v>249606.92480995075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1854433.0608298522</c:v>
+                  <c:v>867751.2784199015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3090721.7680497537</c:v>
+                  <c:v>1485895.6320298524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2722184.3392497539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4209,8 +4257,8 @@
       <xdr:rowOff>165198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>20954</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>612624</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>114652</xdr:rowOff>
     </xdr:to>
@@ -13467,7 +13515,7 @@
     <dataField name="% coste" fld="4" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -13477,7 +13525,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13938,7 +13986,7 @@
       <c r="E6" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="121" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="20" t="s">
@@ -13975,9 +14023,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="120"/>
+        <v>163</v>
+      </c>
+      <c r="G7" s="122"/>
       <c r="H7" s="22" t="s">
         <v>40</v>
       </c>
@@ -14393,10 +14441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7041D5B8-37C3-41F7-B27F-6152AA0E1502}">
-  <dimension ref="A3:Q34"/>
+  <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:U10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -14414,7 +14462,7 @@
     <col min="16" max="16" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="5" customFormat="1">
+    <row r="3" spans="1:18" s="5" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>151</v>
       </c>
@@ -14460,34 +14508,34 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.4" customHeight="1">
-      <c r="A4" s="130" t="s">
+    <row r="4" spans="1:18" ht="14.4" customHeight="1">
+      <c r="A4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="130">
+      <c r="B4" s="123">
         <f>+SUM(N4:N29)</f>
         <v>598</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="129">
         <f>+SUM(P4:P29)</f>
         <v>10370.858333333335</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="136">
+      <c r="E4" s="126">
         <f>+SUM(N4:N13)</f>
         <v>106</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="130">
         <f>+E4/B4</f>
         <v>0.17725752508361203</v>
       </c>
-      <c r="G4" s="139">
+      <c r="G4" s="143">
         <f>+SUM(P4:P13)</f>
         <v>1694.7916666666665</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="130">
         <f>+G4/C4</f>
         <v>0.16341864985460056</v>
       </c>
@@ -14515,16 +14563,22 @@
         <f>+N4*O4</f>
         <v>358.33333333333337</v>
       </c>
+      <c r="Q4" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="R4" s="129" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="122"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
@@ -14545,16 +14599,18 @@
         <f t="shared" ref="P5:P29" si="0">+N5*O5</f>
         <v>333.33333333333337</v>
       </c>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="124"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="122"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
@@ -14563,16 +14619,18 @@
       <c r="N6" s="84"/>
       <c r="O6" s="84"/>
       <c r="P6" s="85"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="124"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="122"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="131"/>
       <c r="I7" s="84">
         <v>2</v>
       </c>
@@ -14599,16 +14657,18 @@
         <f t="shared" si="0"/>
         <v>49.999999999999993</v>
       </c>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="124"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="122"/>
+    <row r="8" spans="1:18">
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="131"/>
       <c r="I8" s="84"/>
       <c r="J8" s="84"/>
       <c r="K8" s="84" t="s">
@@ -14631,16 +14691,18 @@
         <f t="shared" si="0"/>
         <v>83.333333333333314</v>
       </c>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="124"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="140"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="122"/>
+    <row r="9" spans="1:18">
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="131"/>
       <c r="I9" s="84"/>
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
@@ -14661,16 +14723,18 @@
         <f t="shared" si="0"/>
         <v>19.791666666666664</v>
       </c>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="124"/>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="122"/>
+    <row r="10" spans="1:18">
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="131"/>
       <c r="I10" s="84">
         <v>3</v>
       </c>
@@ -14698,16 +14762,18 @@
         <f>+N10*O10</f>
         <v>158.33333333333331</v>
       </c>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="124"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="122"/>
+    <row r="11" spans="1:18">
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="84"/>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
@@ -14729,16 +14795,18 @@
         <f>+N11*O11</f>
         <v>266.66666666666663</v>
       </c>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="124"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="122"/>
+    <row r="12" spans="1:18">
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="131"/>
       <c r="I12" s="84">
         <v>4</v>
       </c>
@@ -14766,16 +14834,18 @@
         <f>+N12*O12</f>
         <v>158.33333333333331</v>
       </c>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="124"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="123"/>
+    <row r="13" spans="1:18">
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="132"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -14797,27 +14867,29 @@
         <f>+N13*O13</f>
         <v>266.66666666666663</v>
       </c>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="124"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4" customHeight="1">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="130" t="s">
+    <row r="14" spans="1:18" ht="14.4" customHeight="1">
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="126">
         <f>+SUM(N14:N29)</f>
         <v>492</v>
       </c>
-      <c r="F14" s="121">
+      <c r="F14" s="130">
         <f>+E14/B4</f>
         <v>0.82274247491638797</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="143">
         <f>+SUM(P14:P29)</f>
         <v>8676.0666666666657</v>
       </c>
-      <c r="H14" s="121">
+      <c r="H14" s="130">
         <f>+G14/C4</f>
         <v>0.83658135014539914</v>
       </c>
@@ -14844,16 +14916,18 @@
         <f>+N14*O14</f>
         <v>2777.0833333333335</v>
       </c>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="124"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="122"/>
+    <row r="15" spans="1:18">
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="131"/>
       <c r="I15" s="84"/>
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
@@ -14872,21 +14946,23 @@
         <f t="shared" ref="P15:P16" si="1">+N15*O15</f>
         <v>2583.3333333333335</v>
       </c>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="124"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="122"/>
+    <row r="16" spans="1:18">
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="84"/>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="150" t="s">
         <v>141</v>
       </c>
       <c r="N16" s="84">
@@ -14900,16 +14976,18 @@
         <f t="shared" si="1"/>
         <v>984.37499999999989</v>
       </c>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="124"/>
     </row>
-    <row r="17" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A17" s="140"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="122"/>
+    <row r="17" spans="1:18" ht="14.4" customHeight="1">
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="131"/>
       <c r="I17" s="84">
         <v>5</v>
       </c>
@@ -14933,16 +15011,18 @@
         <f t="shared" si="0"/>
         <v>59.400000000000006</v>
       </c>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="124"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="140"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="122"/>
+    <row r="18" spans="1:18">
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="131"/>
       <c r="I18" s="84">
         <v>6</v>
       </c>
@@ -14968,23 +15048,25 @@
         <f t="shared" ref="P18:P23" si="2">+N18*O18</f>
         <v>166.66666666666669</v>
       </c>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="124"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="140"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="122"/>
+    <row r="19" spans="1:18">
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="84"/>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
       <c r="L19" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="M19" s="84" t="s">
+      <c r="M19" s="151" t="s">
         <v>141</v>
       </c>
       <c r="N19" s="84">
@@ -14998,16 +15080,18 @@
         <f t="shared" si="2"/>
         <v>145.83333333333331</v>
       </c>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="124"/>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="140"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="122"/>
+    <row r="20" spans="1:18">
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="131"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
@@ -15017,16 +15101,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="124"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="140"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="122"/>
+    <row r="21" spans="1:18">
+      <c r="A21" s="124"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="131"/>
       <c r="I21" s="84">
         <v>7</v>
       </c>
@@ -15055,16 +15141,18 @@
         <f t="shared" si="2"/>
         <v>389.58333333333337</v>
       </c>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="124"/>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="140"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="122"/>
+    <row r="22" spans="1:18">
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="131"/>
       <c r="I22" s="84"/>
       <c r="J22" s="84"/>
       <c r="K22" t="s">
@@ -15089,16 +15177,18 @@
         <f t="shared" si="2"/>
         <v>291.66666666666669</v>
       </c>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="124"/>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="140"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="122"/>
+    <row r="23" spans="1:18">
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="84"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84" t="s">
@@ -15107,7 +15197,7 @@
       <c r="L23" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="84" t="s">
+      <c r="M23" s="151" t="s">
         <v>141</v>
       </c>
       <c r="N23" s="84">
@@ -15121,16 +15211,18 @@
         <f t="shared" si="2"/>
         <v>36.458333333333329</v>
       </c>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="124"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="140"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="122"/>
+    <row r="24" spans="1:18">
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="131"/>
       <c r="I24" s="84">
         <v>8</v>
       </c>
@@ -15155,16 +15247,18 @@
         <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="124"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="140"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="122"/>
+    <row r="25" spans="1:18">
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="131"/>
       <c r="I25" s="84"/>
       <c r="J25" s="84"/>
       <c r="K25" s="84" t="s">
@@ -15186,16 +15280,18 @@
         <f t="shared" si="0"/>
         <v>158.33333333333331</v>
       </c>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="124"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="140"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="122"/>
+    <row r="26" spans="1:18">
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
       <c r="K26" s="84" t="s">
@@ -15217,16 +15313,18 @@
         <f t="shared" si="0"/>
         <v>266.66666666666663</v>
       </c>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="124"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="140"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="122"/>
+    <row r="27" spans="1:18">
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="131"/>
       <c r="I27" s="84"/>
       <c r="J27" s="84"/>
       <c r="K27" s="84" t="s">
@@ -15247,16 +15345,18 @@
         <f t="shared" si="0"/>
         <v>158.33333333333331</v>
       </c>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="124"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="122"/>
+    <row r="28" spans="1:18">
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="84"/>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
@@ -15277,16 +15377,18 @@
         <f t="shared" si="0"/>
         <v>399.99999999999994</v>
       </c>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="124"/>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="132"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="123"/>
+    <row r="29" spans="1:18">
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="132"/>
       <c r="I29" s="2">
         <v>9</v>
       </c>
@@ -15309,27 +15411,29 @@
         <f t="shared" si="0"/>
         <v>158.33333333333331</v>
       </c>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="125"/>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="127" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="127" t="s">
+      <c r="B30" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="140"/>
+      <c r="D30" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="136" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="124"/>
-      <c r="G30" s="139">
+      <c r="E30" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="133"/>
+      <c r="G30" s="143">
         <f>+SUM(P30:P34)</f>
         <v>9958.3333333333321</v>
       </c>
-      <c r="H30" s="124"/>
+      <c r="H30" s="133"/>
       <c r="I30">
         <v>10</v>
       </c>
@@ -15351,25 +15455,25 @@
         <v>2666.6666666666665</v>
       </c>
       <c r="Q30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="128"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="125"/>
+    <row r="31" spans="1:18">
+      <c r="A31" s="137"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="134"/>
       <c r="I31">
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>156</v>
-      </c>
-      <c r="M31" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="151" t="s">
         <v>141</v>
       </c>
       <c r="N31" s="79">
@@ -15384,23 +15488,23 @@
         <v>2916.6666666666665</v>
       </c>
       <c r="Q31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="128"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="125"/>
+    <row r="32" spans="1:18">
+      <c r="A32" s="137"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="134"/>
       <c r="I32">
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M32" s="84" t="s">
         <v>106</v>
@@ -15417,23 +15521,23 @@
         <v>1416.6666666666667</v>
       </c>
       <c r="Q32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="128"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="125"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="134"/>
       <c r="I33" s="84">
         <v>13</v>
       </c>
       <c r="J33" s="84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" s="84"/>
       <c r="L33" s="84"/>
@@ -15452,23 +15556,23 @@
         <v>1791.6666666666667</v>
       </c>
       <c r="Q33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="129"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="126"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="135"/>
       <c r="I34" s="2">
         <v>14</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -15487,16 +15591,15 @@
         <v>1166.6666666666667</v>
       </c>
       <c r="Q34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="A4:A29"/>
-    <mergeCell ref="B4:B29"/>
-    <mergeCell ref="C4:C29"/>
+  <autoFilter ref="A3:Q34" xr:uid="{3F4DBB25-F587-4929-BD9F-3CA16342A858}"/>
+  <mergeCells count="24">
+    <mergeCell ref="Q4:Q13"/>
+    <mergeCell ref="Q14:Q29"/>
+    <mergeCell ref="R4:R29"/>
     <mergeCell ref="H4:H13"/>
     <mergeCell ref="H14:H29"/>
     <mergeCell ref="H30:H34"/>
@@ -15513,6 +15616,11 @@
     <mergeCell ref="E14:E29"/>
     <mergeCell ref="F4:F13"/>
     <mergeCell ref="F14:F29"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="A4:A29"/>
+    <mergeCell ref="B4:B29"/>
+    <mergeCell ref="C4:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15523,11 +15631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46BF6FD-E79B-44AD-880A-C8E040D1AC59}">
   <dimension ref="A2:AQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC21" sqref="AC21"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -15535,7 +15643,7 @@
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.109375" customWidth="1"/>
     <col min="7" max="7" width="1.21875" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
@@ -15550,9 +15658,10 @@
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.5546875" style="5"/>
     <col min="23" max="23" width="15.88671875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="1.33203125" customWidth="1"/>
+    <col min="24" max="24" width="5.5546875" customWidth="1"/>
     <col min="25" max="25" width="12.88671875" customWidth="1"/>
-    <col min="26" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.88671875" customWidth="1"/>
     <col min="31" max="31" width="12.5546875" customWidth="1"/>
@@ -15566,10 +15675,10 @@
   <sheetData>
     <row r="2" spans="1:43">
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -15587,14 +15696,14 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="Y2" s="6" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AE2" s="110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF2" s="111"/>
       <c r="AG2" s="111"/>
@@ -15626,10 +15735,10 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>82</v>
@@ -15650,7 +15759,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -15662,16 +15771,16 @@
         <v>0</v>
       </c>
       <c r="W4" s="106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AE4" s="110" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF4" s="111"/>
       <c r="AG4" s="111"/>
@@ -15691,32 +15800,32 @@
         <v>80</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>172</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K5" s="91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L5" s="103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>43</v>
@@ -15732,47 +15841,47 @@
         <v>24</v>
       </c>
       <c r="R5" s="102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S5" s="42"/>
       <c r="U5" s="94" t="s">
         <v>26</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="W5" s="107" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="Y5" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z5" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA5" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB5" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC5" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE5" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="Z5" s="101" t="s">
+      <c r="AF5" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="AA5" s="101" t="s">
+      <c r="AG5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="AB5" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC5" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE5" s="113" t="s">
+      <c r="AI5" s="113" t="s">
         <v>229</v>
-      </c>
-      <c r="AF5" s="113" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG5" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH5" s="113" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI5" s="113" t="s">
-        <v>232</v>
       </c>
       <c r="AJ5" s="112"/>
       <c r="AK5" s="113"/>
@@ -15794,16 +15903,16 @@
         <f>+C8*4</f>
         <v>1440</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f t="shared" ref="D6:D8" si="0">+C6*30</f>
         <v>43200</v>
       </c>
       <c r="E6" s="90">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <f>+E6*20%</f>
-        <v>0.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H6" s="1">
         <f>+'horas roles costes'!$B$4</f>
@@ -15840,45 +15949,45 @@
         <f>+V6*20%+V6</f>
         <v>28578.064800000004</v>
       </c>
-      <c r="Y6" s="148">
-        <f>+(D6*0.5%)*'Estimación medias viviendas'!$F$9</f>
-        <v>103024.05893499179</v>
-      </c>
-      <c r="Z6" s="148">
-        <f>+(D6*2%)*'Estimación medias viviendas'!$F$9</f>
-        <v>412096.23573996715</v>
-      </c>
-      <c r="AA6" s="148">
-        <f>+(D6*4%)*'Estimación medias viviendas'!$F$9</f>
-        <v>824192.47147993429</v>
-      </c>
-      <c r="AB6" s="148">
-        <f>+(D6*6%)*'Estimación medias viviendas'!$F$9</f>
-        <v>1236288.7072199015</v>
-      </c>
-      <c r="AC6" s="148">
-        <f>+(D6*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>2060481.1786998359</v>
+      <c r="Y6" s="119">
+        <f>+((D6*0.5%)*'Estimación medias viviendas'!$F$9)-W6</f>
+        <v>74445.994134991779</v>
+      </c>
+      <c r="Z6" s="119">
+        <f>+((D6*2%)*'Estimación medias viviendas'!$F$9)-W6</f>
+        <v>383518.17093996715</v>
+      </c>
+      <c r="AA6" s="119">
+        <f>+((D6*4%)*'Estimación medias viviendas'!$F$9)-W6</f>
+        <v>795614.40667993424</v>
+      </c>
+      <c r="AB6" s="119">
+        <f>+((D6*6%)*'Estimación medias viviendas'!$F$9)-W6</f>
+        <v>1207710.6424199014</v>
+      </c>
+      <c r="AC6" s="119">
+        <f>+((D6*10%)*'Estimación medias viviendas'!$F$9)-W6</f>
+        <v>2031903.1138998359</v>
       </c>
       <c r="AE6" s="116">
         <f>+Y6*5%</f>
-        <v>5151.2029467495895</v>
+        <v>3722.2997067495889</v>
       </c>
       <c r="AF6" s="116">
         <f>+Z6*5%</f>
-        <v>20604.811786998358</v>
+        <v>19175.908546998358</v>
       </c>
       <c r="AG6" s="116">
         <f>+AA6*5%</f>
-        <v>41209.623573996716</v>
+        <v>39780.720333996716</v>
       </c>
       <c r="AH6" s="116">
         <f>+AB6*5%</f>
-        <v>61814.435360995078</v>
+        <v>60385.532120995078</v>
       </c>
       <c r="AI6" s="116">
         <f>AC6*5%</f>
-        <v>103024.0589349918</v>
+        <v>101595.1556949918</v>
       </c>
       <c r="AJ6" s="112"/>
       <c r="AK6" s="112"/>
@@ -15900,16 +16009,16 @@
         <f>+C8*2</f>
         <v>720</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
       <c r="E7" s="90">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F9" si="1">+E7*20%</f>
-        <v>0.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H7" s="1">
         <f>+'horas roles costes'!$B$4</f>
@@ -15946,45 +16055,45 @@
         <f t="shared" ref="W7:W17" si="2">+V7*20%+V7</f>
         <v>28578.064800000004</v>
       </c>
-      <c r="Y7" s="149">
-        <f>+(D7*0.5%)*'Estimación medias viviendas'!$F$9</f>
-        <v>51512.029467495893</v>
-      </c>
-      <c r="Z7" s="149">
-        <f>+(D7*2%)*'Estimación medias viviendas'!$F$9</f>
-        <v>206048.11786998357</v>
-      </c>
-      <c r="AA7" s="149">
-        <f>+(D7*4%)*'Estimación medias viviendas'!$F$9</f>
-        <v>412096.23573996715</v>
-      </c>
-      <c r="AB7" s="149">
-        <f>+(D7*6%)*'Estimación medias viviendas'!$F$9</f>
-        <v>618144.35360995075</v>
-      </c>
-      <c r="AC7" s="149">
-        <f>+(D7*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>1030240.589349918</v>
+      <c r="Y7" s="119">
+        <f>+((D7*0.5%)*'Estimación medias viviendas'!$F$9)-W7</f>
+        <v>22933.964667495889</v>
+      </c>
+      <c r="Z7" s="119">
+        <f>+((D7*2%)*'Estimación medias viviendas'!$F$9)-W7</f>
+        <v>177470.05306998358</v>
+      </c>
+      <c r="AA7" s="119">
+        <f>+((D7*4%)*'Estimación medias viviendas'!$F$9)-W7</f>
+        <v>383518.17093996715</v>
+      </c>
+      <c r="AB7" s="119">
+        <f>+((D7*6%)*'Estimación medias viviendas'!$F$9)-W7</f>
+        <v>589566.2888099507</v>
+      </c>
+      <c r="AC7" s="119">
+        <f>+((D7*10%)*'Estimación medias viviendas'!$F$9)-W7</f>
+        <v>1001662.5245499179</v>
       </c>
       <c r="AE7" s="116">
         <f t="shared" ref="AE7:AE9" si="3">+Y7*5%</f>
-        <v>2575.6014733747948</v>
+        <v>1146.6982333747944</v>
       </c>
       <c r="AF7" s="116">
         <f t="shared" ref="AF7:AF9" si="4">+Z7*5%</f>
-        <v>10302.405893499179</v>
+        <v>8873.5026534991794</v>
       </c>
       <c r="AG7" s="116">
         <f t="shared" ref="AG7:AG9" si="5">+AA7*5%</f>
-        <v>20604.811786998358</v>
+        <v>19175.908546998358</v>
       </c>
       <c r="AH7" s="116">
         <f>+AC7*5%</f>
-        <v>51512.0294674959</v>
+        <v>50083.126227495901</v>
       </c>
       <c r="AI7" s="116">
         <f t="shared" ref="AI7:AI9" si="6">AC7*5%</f>
-        <v>51512.0294674959</v>
+        <v>50083.126227495901</v>
       </c>
       <c r="AJ7" s="112"/>
       <c r="AK7" s="112"/>
@@ -16005,16 +16114,16 @@
       <c r="C8" s="5">
         <v>360</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
       <c r="E8" s="90">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H8" s="1">
         <f>+'horas roles costes'!$B$4</f>
@@ -16051,45 +16160,45 @@
         <f t="shared" si="2"/>
         <v>28578.064800000004</v>
       </c>
-      <c r="Y8" s="151">
-        <f>+(D8*0.5%)*'Estimación medias viviendas'!$F$9</f>
-        <v>25756.014733747947</v>
-      </c>
-      <c r="Z8" s="151">
-        <f>+(D8*2%)*'Estimación medias viviendas'!$F$9</f>
-        <v>103024.05893499179</v>
-      </c>
-      <c r="AA8" s="151">
-        <f>+(D8*4%)*'Estimación medias viviendas'!$F$9</f>
-        <v>206048.11786998357</v>
-      </c>
-      <c r="AB8" s="151">
-        <f>+(D8*6%)*'Estimación medias viviendas'!$F$9</f>
-        <v>309072.17680497537</v>
-      </c>
-      <c r="AC8" s="151">
-        <f>+(D8*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>515120.29467495898</v>
+      <c r="Y8" s="119">
+        <f>+((D8*0.5%)*'Estimación medias viviendas'!$F$9)-W8</f>
+        <v>-2822.0500662520571</v>
+      </c>
+      <c r="Z8" s="119">
+        <f>+((D8*2%)*'Estimación medias viviendas'!$F$9)-W8</f>
+        <v>74445.994134991779</v>
+      </c>
+      <c r="AA8" s="119">
+        <f>+((D8*4%)*'Estimación medias viviendas'!$F$9)-W8</f>
+        <v>177470.05306998358</v>
+      </c>
+      <c r="AB8" s="119">
+        <f>+((D8*6%)*'Estimación medias viviendas'!$F$9)-W8</f>
+        <v>280494.11200497538</v>
+      </c>
+      <c r="AC8" s="119">
+        <f>+((D8*10%)*'Estimación medias viviendas'!$F$9)-W8</f>
+        <v>486542.22987495898</v>
       </c>
       <c r="AE8" s="116">
         <f t="shared" si="3"/>
-        <v>1287.8007366873974</v>
+        <v>-141.10250331260286</v>
       </c>
       <c r="AF8" s="116">
         <f t="shared" si="4"/>
-        <v>5151.2029467495895</v>
+        <v>3722.2997067495889</v>
       </c>
       <c r="AG8" s="116">
         <f t="shared" si="5"/>
-        <v>10302.405893499179</v>
+        <v>8873.5026534991794</v>
       </c>
       <c r="AH8" s="116">
         <f>+AC8*5%</f>
-        <v>25756.01473374795</v>
+        <v>24327.111493747951</v>
       </c>
       <c r="AI8" s="116">
         <f t="shared" si="6"/>
-        <v>25756.01473374795</v>
+        <v>24327.111493747951</v>
       </c>
       <c r="AJ8" s="112"/>
       <c r="AK8" s="112"/>
@@ -16111,16 +16220,16 @@
         <f>+C8/2</f>
         <v>180</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f>+C9*30</f>
         <v>5400</v>
       </c>
       <c r="E9" s="90">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H9" s="1">
         <f>+'horas roles costes'!$B$4</f>
@@ -16157,45 +16266,45 @@
         <f t="shared" si="2"/>
         <v>26562.064800000004</v>
       </c>
-      <c r="Y9" s="152">
-        <f>+(D9*0.5%)*'Estimación medias viviendas'!$F$9</f>
-        <v>12878.007366873973</v>
-      </c>
-      <c r="Z9" s="152">
-        <f>+(D9*2%)*'Estimación medias viviendas'!$F$9</f>
-        <v>51512.029467495893</v>
-      </c>
-      <c r="AA9" s="152">
-        <f>+(D9*4%)*'Estimación medias viviendas'!$F$9</f>
-        <v>103024.05893499179</v>
-      </c>
-      <c r="AB9" s="152">
-        <f>+(D9*6%)*'Estimación medias viviendas'!$F$9</f>
-        <v>154536.08840248769</v>
-      </c>
-      <c r="AC9" s="153">
-        <f>+(D9*10%)*'Estimación medias viviendas'!$F$9</f>
-        <v>257560.14733747949</v>
+      <c r="Y9" s="119">
+        <f>+((D9*0.5%)*'Estimación medias viviendas'!$F$9)-W9</f>
+        <v>-13684.05743312603</v>
+      </c>
+      <c r="Z9" s="119">
+        <f>+((D9*2%)*'Estimación medias viviendas'!$F$9)-W9</f>
+        <v>24949.964667495889</v>
+      </c>
+      <c r="AA9" s="119">
+        <f>+((D9*4%)*'Estimación medias viviendas'!$F$9)-W9</f>
+        <v>76461.994134991779</v>
+      </c>
+      <c r="AB9" s="119">
+        <f>+((D9*6%)*'Estimación medias viviendas'!$F$9)-W9</f>
+        <v>127974.02360248768</v>
+      </c>
+      <c r="AC9" s="119">
+        <f>+((D9*10%)*'Estimación medias viviendas'!$F$9)-W9</f>
+        <v>230998.08253747949</v>
       </c>
       <c r="AE9" s="116">
         <f t="shared" si="3"/>
-        <v>643.90036834369869</v>
+        <v>-684.20287165630157</v>
       </c>
       <c r="AF9" s="116">
         <f t="shared" si="4"/>
-        <v>2575.6014733747948</v>
+        <v>1247.4982333747946</v>
       </c>
       <c r="AG9" s="116">
         <f t="shared" si="5"/>
-        <v>5151.2029467495895</v>
+        <v>3823.0997067495891</v>
       </c>
       <c r="AH9" s="116">
         <f>+AC9*5%</f>
-        <v>12878.007366873975</v>
+        <v>11549.904126873975</v>
       </c>
       <c r="AI9" s="116">
         <f t="shared" si="6"/>
-        <v>12878.007366873975</v>
+        <v>11549.904126873975</v>
       </c>
       <c r="AJ9" s="112"/>
       <c r="AK9" s="112"/>
@@ -16254,7 +16363,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -16264,7 +16373,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -16273,20 +16382,20 @@
         <v>86</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W12" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AE12" s="110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF12" s="111"/>
       <c r="AG12" s="111"/>
@@ -16299,10 +16408,10 @@
         <v>80</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>172</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>88</v>
@@ -16311,16 +16420,16 @@
       <c r="G13" s="39"/>
       <c r="H13" s="2"/>
       <c r="I13" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="41" t="s">
         <v>60</v>
       </c>
       <c r="L13" s="104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M13" s="41" t="s">
         <v>43</v>
@@ -16330,7 +16439,7 @@
       </c>
       <c r="O13" s="40"/>
       <c r="P13" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="42" t="s">
         <v>24</v>
@@ -16340,43 +16449,43 @@
       </c>
       <c r="S13" s="42"/>
       <c r="U13" s="94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V13" s="100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W13" s="109" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="Y13" s="101" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Z13" s="101" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AA13" s="101" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AB13" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC13" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="AC13" s="101" t="s">
-        <v>224</v>
-      </c>
       <c r="AE13" s="117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF13" s="117" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG13" s="117" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="AG13" s="117" t="s">
+      <c r="AI13" s="117" t="s">
         <v>200</v>
-      </c>
-      <c r="AH13" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI13" s="117" t="s">
-        <v>202</v>
       </c>
       <c r="AJ13" s="112"/>
     </row>
@@ -16391,7 +16500,7 @@
         <f>+C16*4</f>
         <v>1440</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <f t="shared" ref="D14:D16" si="7">+C14*30</f>
         <v>43200</v>
       </c>
@@ -16433,45 +16542,45 @@
         <f t="shared" si="2"/>
         <v>397913.42879999999</v>
       </c>
-      <c r="Y14" s="148">
-        <f>+((D14*0.5%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>1236288.7072199015</v>
-      </c>
-      <c r="Z14" s="148">
-        <f>+((D14*2%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>4945154.828879606</v>
-      </c>
-      <c r="AA14" s="148">
-        <f>+((D14*4%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>9890309.657759212</v>
-      </c>
-      <c r="AB14" s="148">
-        <f>+((D14*6%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>14835464.486638818</v>
-      </c>
-      <c r="AC14" s="148">
-        <f>+((D14*10%)*'Estimación medias viviendas'!$F$9)*E14</f>
-        <v>24725774.14439803</v>
+      <c r="Y14" s="119">
+        <f>+(((D14*0.5%)*'Estimación medias viviendas'!$F$9)*E14)-W14</f>
+        <v>838375.2784199015</v>
+      </c>
+      <c r="Z14" s="119">
+        <f>+(((D14*2%)*'Estimación medias viviendas'!$F$9)*E14)-W14</f>
+        <v>4547241.4000796061</v>
+      </c>
+      <c r="AA14" s="119">
+        <f>+(((D14*4%)*'Estimación medias viviendas'!$F$9)*E14)-W14</f>
+        <v>9492396.2289592121</v>
+      </c>
+      <c r="AB14" s="119">
+        <f>+(((D14*6%)*'Estimación medias viviendas'!$F$9)*12)-W14</f>
+        <v>14437551.057838818</v>
+      </c>
+      <c r="AC14" s="119">
+        <f>+(((D14*10%)*'Estimación medias viviendas'!$F$9)*E14)-W14</f>
+        <v>24327860.715598028</v>
       </c>
       <c r="AE14" s="116">
         <f>+Y14*5%</f>
-        <v>61814.435360995078</v>
+        <v>41918.763920995079</v>
       </c>
       <c r="AF14" s="116">
         <f>+Z14*5%</f>
-        <v>247257.74144398031</v>
+        <v>227362.07000398031</v>
       </c>
       <c r="AG14" s="116">
         <f>+AA14*5%</f>
-        <v>494515.48288796062</v>
+        <v>474619.81144796062</v>
       </c>
       <c r="AH14" s="116">
         <f>+AB14*5%</f>
-        <v>741773.22433194099</v>
+        <v>721877.55289194093</v>
       </c>
       <c r="AI14" s="116">
         <f>+AC14*5%</f>
-        <v>1236288.7072199015</v>
+        <v>1216393.0357799015</v>
       </c>
       <c r="AJ14" s="112"/>
       <c r="AK14" s="112"/>
@@ -16493,7 +16602,7 @@
         <f>+C16*2</f>
         <v>720</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <f t="shared" si="7"/>
         <v>21600</v>
       </c>
@@ -16535,45 +16644,45 @@
         <f t="shared" si="2"/>
         <v>397913.42879999999</v>
       </c>
-      <c r="Y15" s="149">
-        <f>+((D15*0.5%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>618144.35360995075</v>
-      </c>
-      <c r="Z15" s="149">
-        <f>+((D15*2%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>2472577.414439803</v>
-      </c>
-      <c r="AA15" s="149">
-        <f>+((D15*4%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>4945154.828879606</v>
-      </c>
-      <c r="AB15" s="149">
-        <f>+((D15*6%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>7417732.243319409</v>
-      </c>
-      <c r="AC15" s="149">
-        <f>+((D15*10%)*'Estimación medias viviendas'!$F$9)*E15</f>
-        <v>12362887.072199015</v>
+      <c r="Y15" s="119">
+        <f>+(((D15*0.5%)*'Estimación medias viviendas'!$F$9)*E15)-W15</f>
+        <v>220230.92480995075</v>
+      </c>
+      <c r="Z15" s="119">
+        <f>+(((D15*2%)*'Estimación medias viviendas'!$F$9)*E15)-W15</f>
+        <v>2074663.9856398031</v>
+      </c>
+      <c r="AA15" s="119">
+        <f>+(((D15*4%)*'Estimación medias viviendas'!$F$9)*E15)-W15</f>
+        <v>4547241.4000796061</v>
+      </c>
+      <c r="AB15" s="119">
+        <f>+(((D15*6%)*'Estimación medias viviendas'!$F$9)*12)-W15</f>
+        <v>7019818.8145194091</v>
+      </c>
+      <c r="AC15" s="119">
+        <f>+(((D15*10%)*'Estimación medias viviendas'!$F$9)*E15)-W15</f>
+        <v>11964973.643399015</v>
       </c>
       <c r="AE15" s="116">
         <f t="shared" ref="AE15:AE17" si="9">+Y15*5%</f>
-        <v>30907.217680497539</v>
+        <v>11011.546240497539</v>
       </c>
       <c r="AF15" s="116">
         <f t="shared" ref="AF15:AF17" si="10">+Z15*5%</f>
-        <v>123628.87072199016</v>
+        <v>103733.19928199016</v>
       </c>
       <c r="AG15" s="116">
         <f t="shared" ref="AG15:AG17" si="11">+AA15*5%</f>
-        <v>247257.74144398031</v>
+        <v>227362.07000398031</v>
       </c>
       <c r="AH15" s="116">
         <f t="shared" ref="AH15:AH17" si="12">+AB15*5%</f>
-        <v>370886.61216597049</v>
+        <v>350990.94072597049</v>
       </c>
       <c r="AI15" s="116">
         <f t="shared" ref="AI15:AI17" si="13">+AC15*5%</f>
-        <v>618144.35360995075</v>
+        <v>598248.6821699508</v>
       </c>
       <c r="AJ15" s="112"/>
       <c r="AK15" s="112"/>
@@ -16594,7 +16703,7 @@
       <c r="C16" s="5">
         <v>360</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <f t="shared" si="7"/>
         <v>10800</v>
       </c>
@@ -16636,45 +16745,45 @@
         <f t="shared" si="2"/>
         <v>397913.42879999999</v>
       </c>
-      <c r="Y16" s="151">
-        <f>+((D16*0.5%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>309072.17680497537</v>
-      </c>
-      <c r="Z16" s="151">
-        <f>+((D16*2%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>1236288.7072199015</v>
-      </c>
-      <c r="AA16" s="151">
-        <f>+((D16*4%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>2472577.414439803</v>
-      </c>
-      <c r="AB16" s="151">
-        <f>+((D16*6%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>3708866.1216597045</v>
-      </c>
-      <c r="AC16" s="151">
-        <f>+((D16*10%)*'Estimación medias viviendas'!$F$9)*E16</f>
-        <v>6181443.5360995075</v>
+      <c r="Y16" s="119">
+        <f>+(((D16*0.5%)*'Estimación medias viviendas'!$F$9)*E16)-W16</f>
+        <v>-88841.251995024621</v>
+      </c>
+      <c r="Z16" s="119">
+        <f>+(((D16*2%)*'Estimación medias viviendas'!$F$9)*E16)-W16</f>
+        <v>838375.2784199015</v>
+      </c>
+      <c r="AA16" s="119">
+        <f>+(((D16*4%)*'Estimación medias viviendas'!$F$9)*E16)-W16</f>
+        <v>2074663.9856398031</v>
+      </c>
+      <c r="AB16" s="119">
+        <f>+(((D16*6%)*'Estimación medias viviendas'!$F$9)*12)-W16</f>
+        <v>3310952.6928597046</v>
+      </c>
+      <c r="AC16" s="119">
+        <f>+(((D16*10%)*'Estimación medias viviendas'!$F$9)*E16)-W16</f>
+        <v>5783530.1072995076</v>
       </c>
       <c r="AE16" s="116">
         <f t="shared" si="9"/>
-        <v>15453.608840248769</v>
+        <v>-4442.0625997512316</v>
       </c>
       <c r="AF16" s="116">
         <f t="shared" si="10"/>
-        <v>61814.435360995078</v>
+        <v>41918.763920995079</v>
       </c>
       <c r="AG16" s="116">
         <f t="shared" si="11"/>
-        <v>123628.87072199016</v>
+        <v>103733.19928199016</v>
       </c>
       <c r="AH16" s="116">
         <f t="shared" si="12"/>
-        <v>185443.30608298525</v>
+        <v>165547.63464298524</v>
       </c>
       <c r="AI16" s="116">
         <f t="shared" si="13"/>
-        <v>309072.17680497537</v>
+        <v>289176.50536497537</v>
       </c>
       <c r="AJ16" s="112"/>
       <c r="AK16" s="112"/>
@@ -16696,7 +16805,7 @@
         <f>+C16/2</f>
         <v>180</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <f>+C17*30</f>
         <v>5400</v>
       </c>
@@ -16738,45 +16847,45 @@
         <f t="shared" si="2"/>
         <v>368537.42879999999</v>
       </c>
-      <c r="Y17" s="152">
-        <f>+((D17*0.5%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>154536.08840248769</v>
-      </c>
-      <c r="Z17" s="152">
-        <f>+((D17*2%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>618144.35360995075</v>
-      </c>
-      <c r="AA17" s="152">
-        <f>+((D17*4%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>1236288.7072199015</v>
-      </c>
-      <c r="AB17" s="152">
-        <f>+((D17*6%)*'Estimación medias viviendas'!$F$9)*12</f>
-        <v>1854433.0608298522</v>
-      </c>
-      <c r="AC17" s="153">
-        <f>+((D17*10%)*'Estimación medias viviendas'!$F$9)*E17</f>
-        <v>3090721.7680497537</v>
+      <c r="Y17" s="119">
+        <f>+(((D17*0.5%)*'Estimación medias viviendas'!$F$9)*E17)-W17</f>
+        <v>-214001.34039751231</v>
+      </c>
+      <c r="Z17" s="119">
+        <f>+(((D17*2%)*'Estimación medias viviendas'!$F$9)*E17)-W17</f>
+        <v>249606.92480995075</v>
+      </c>
+      <c r="AA17" s="119">
+        <f>+(((D17*4%)*'Estimación medias viviendas'!$F$9)*E17)-W17</f>
+        <v>867751.2784199015</v>
+      </c>
+      <c r="AB17" s="119">
+        <f>+(((D17*6%)*'Estimación medias viviendas'!$F$9)*12)-W17</f>
+        <v>1485895.6320298524</v>
+      </c>
+      <c r="AC17" s="119">
+        <f>+(((D17*10%)*'Estimación medias viviendas'!$F$9)*E17)-W17</f>
+        <v>2722184.3392497539</v>
       </c>
       <c r="AE17" s="116">
         <f t="shared" si="9"/>
-        <v>7726.8044201243847</v>
+        <v>-10700.067019875616</v>
       </c>
       <c r="AF17" s="116">
         <f t="shared" si="10"/>
-        <v>30907.217680497539</v>
+        <v>12480.346240497538</v>
       </c>
       <c r="AG17" s="116">
         <f t="shared" si="11"/>
-        <v>61814.435360995078</v>
+        <v>43387.563920995075</v>
       </c>
       <c r="AH17" s="116">
         <f t="shared" si="12"/>
-        <v>92721.653041492624</v>
+        <v>74294.781601492621</v>
       </c>
       <c r="AI17" s="116">
         <f t="shared" si="13"/>
-        <v>154536.08840248769</v>
+        <v>136109.2169624877</v>
       </c>
       <c r="AJ17" s="112"/>
       <c r="AK17" s="112"/>
@@ -16849,14 +16958,14 @@
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>81</v>
@@ -16897,11 +17006,11 @@
         <v>360</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <f>+E22*20%</f>
-        <v>0.1</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="H22">
         <f>+SUM('horas roles costes'!N4:N13)</f>
@@ -16932,18 +17041,18 @@
       </c>
       <c r="V22" s="33">
         <f>+SUM(I22,J22:S22,U22)*E22</f>
-        <v>1072.721</v>
+        <v>15018.094000000001</v>
       </c>
       <c r="W22" s="33"/>
     </row>
     <row r="26" spans="1:43">
       <c r="B26" s="115" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="B27" s="111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C27" s="111"/>
       <c r="D27" s="111"/>
@@ -16954,7 +17063,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="36"/>
       <c r="N27" s="27"/>
-      <c r="P27" s="150">
+      <c r="P27" s="120">
         <v>0.1</v>
       </c>
       <c r="Q27">
@@ -16964,11 +17073,11 @@
     </row>
     <row r="28" spans="1:43">
       <c r="B28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G28" s="118"/>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="1">
         <f>+'Estimación medias viviendas'!F9</f>
@@ -16977,7 +17086,7 @@
     </row>
     <row r="29" spans="1:43">
       <c r="B29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="1">
         <f>+Q27*Q28</f>
@@ -16986,7 +17095,7 @@
     </row>
     <row r="30" spans="1:43">
       <c r="B30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="1">
         <f>+Q29*12</f>
@@ -16995,15 +17104,18 @@
     </row>
     <row r="31" spans="1:43">
       <c r="B31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="B32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="37" spans="8:14">
+    <row r="34" spans="8:28">
+      <c r="AB34" s="1"/>
+    </row>
+    <row r="37" spans="8:28">
       <c r="H37" s="16" t="s">
         <v>27</v>
       </c>
@@ -17014,7 +17126,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="8:14" ht="27">
+    <row r="38" spans="8:28" ht="27">
       <c r="H38" s="18" t="s">
         <v>28</v>
       </c>
@@ -17035,8 +17147,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="8:14" ht="39.6">
-      <c r="H39" s="119" t="s">
+    <row r="39" spans="8:28" ht="39.6">
+      <c r="H39" s="121" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="20" t="s">
@@ -17058,10 +17170,10 @@
         <v>79.78</v>
       </c>
     </row>
-    <row r="40" spans="8:14" ht="39.6">
-      <c r="H40" s="120"/>
+    <row r="40" spans="8:28" ht="39.6">
+      <c r="H40" s="122"/>
       <c r="I40" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J40" s="23">
         <v>2</v>
@@ -17078,7 +17190,7 @@
         <v>63421.680000000008</v>
       </c>
     </row>
-    <row r="41" spans="8:14" ht="26.4">
+    <row r="41" spans="8:28" ht="26.4">
       <c r="H41" s="22" t="s">
         <v>44</v>
       </c>
@@ -17100,7 +17212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="8:14" ht="26.4">
+    <row r="42" spans="8:28" ht="26.4">
       <c r="H42" s="22" t="s">
         <v>45</v>
       </c>
@@ -17125,7 +17237,7 @@
         <v>6878.16</v>
       </c>
     </row>
-    <row r="43" spans="8:14" ht="52.8">
+    <row r="43" spans="8:28" ht="52.8">
       <c r="H43" s="22" t="s">
         <v>50</v>
       </c>
@@ -17145,7 +17257,7 @@
         <v>7693</v>
       </c>
     </row>
-    <row r="44" spans="8:14" ht="27">
+    <row r="44" spans="8:28" ht="27">
       <c r="H44" s="31" t="s">
         <v>61</v>
       </c>
@@ -17167,7 +17279,7 @@
         <v>1416.24</v>
       </c>
     </row>
-    <row r="45" spans="8:14">
+    <row r="45" spans="8:28">
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="10"/>
@@ -17176,7 +17288,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="8:14">
+    <row r="46" spans="8:28">
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -17185,7 +17297,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="8:14" ht="27">
+    <row r="47" spans="8:28" ht="27">
       <c r="H47" s="10" t="s">
         <v>37</v>
       </c>
@@ -17198,7 +17310,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="8:14">
+    <row r="48" spans="8:28">
       <c r="H48" s="10"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
@@ -17336,22 +17448,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="51"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
       <c r="I3" s="63"/>
       <c r="J3" s="67" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="68"/>
       <c r="L3" s="68"/>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
       <c r="P3" s="76"/>
       <c r="Q3" s="76"/>
       <c r="R3" s="76"/>
@@ -18037,7 +18149,7 @@
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
       <c r="I18" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -18062,13 +18174,13 @@
     <mergeCell ref="M3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:L13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18111,27 +18223,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="43.2">
       <c r="A1" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="C1" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="D1" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="E1" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="96" t="s">
-        <v>178</v>
-      </c>
       <c r="F1" s="99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>155</v>
@@ -18152,7 +18264,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>165</v>
@@ -18173,7 +18285,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>140</v>
@@ -18194,7 +18306,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>141</v>
@@ -18215,7 +18327,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>134</v>
@@ -18236,7 +18348,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>123</v>
@@ -18278,7 +18390,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -18299,7 +18411,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="F10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
